--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="86">
   <si>
     <t>Doi</t>
   </si>
@@ -384,6 +384,114 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,  Wei%Zhao%NULL%1,  Ji%Li%NULL%1,  Weiwei%Shu%shuweiwei361@163.com%1,  Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
+ Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
+ However, the experience of HFNC in this population is lacking.
+Methods
+id="Par2"&gt;We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
+ HFNC failure was defined by the need of NIV or intubation as rescue therapy.
+Results
+id="Par3"&gt;Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
+ The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
+ 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
+ Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
+ 23 (22–25), p = 0.03].
+ However, it did not in the unsuccessful group.
+ After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
+ 114 (IQR: 79–130) under HFNC, p = 0.04].
+ However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
+ Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
+Conclusions
+id="Par4"&gt;Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
+ Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
+</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,   Wei%Zhao%NULL%1,   Ji%Li%NULL%1,   Weiwei%Shu%shuweiwei361@163.com%1,   Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
+ Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
+ However, the experience of HFNC in this population is lacking.
+Methods
+We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
+ HFNC failure was defined by the need of NIV or intubation as rescue therapy.
+Results
+id="Par3"&gt;Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
+ The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
+ 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
+ Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
+ 23 (22–25), p = 0.03].
+ However, it did not in the unsuccessful group.
+ After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
+ 114 (IQR: 79–130) under HFNC, p = 0.04].
+ However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
+ Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
+Conclusions
+id="Par4"&gt;Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
+ Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
+</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,    Wei%Zhao%NULL%1,    Ji%Li%NULL%1,    Weiwei%Shu%shuweiwei361@163.com%1,    Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
+ Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
+ However, the experience of HFNC in this population is lacking.
+Methods
+We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
+ HFNC failure was defined by the need of NIV or intubation as rescue therapy.
+Results
+Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
+ The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
+ 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
+ Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
+ 23 (22–25), p = 0.03].
+ However, it did not in the unsuccessful group.
+ After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
+ 114 (IQR: 79–130) under HFNC, p = 0.04].
+ However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
+ Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
+Conclusions
+id="Par4"&gt;Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
+ Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
+</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,     Wei%Zhao%NULL%1,     Ji%Li%NULL%2,     Weiwei%Shu%shuweiwei361@163.com%1,     Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
+ Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
+ However, the experience of HFNC in this population is lacking.
+Methods
+We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
+ HFNC failure was defined by the need of NIV or intubation as rescue therapy.
+Results
+Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
+ The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
+ 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
+ Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
+ 23 (22–25), p = 0.03].
+ However, it did not in the unsuccessful group.
+ After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
+ 114 (IQR: 79–130) under HFNC, p = 0.04].
+ However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
+ Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
+Conclusions
+Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
+ Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
+</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,      Wei%Zhao%NULL%1,      Ji%Li%NULL%1,      Weiwei%Shu%shuweiwei361@163.com%1,      Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1184,10 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="78">
   <si>
     <t>Doi</t>
   </si>
@@ -384,114 +384,6 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,  Wei%Zhao%NULL%1,  Ji%Li%NULL%1,  Weiwei%Shu%shuweiwei361@163.com%1,  Jun%Duan%duanjun412589@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
- Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
- However, the experience of HFNC in this population is lacking.
-Methods
-id="Par2"&gt;We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
- HFNC failure was defined by the need of NIV or intubation as rescue therapy.
-Results
-id="Par3"&gt;Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
- The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
- 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
- Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
- 23 (22–25), p = 0.03].
- However, it did not in the unsuccessful group.
- After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
- 114 (IQR: 79–130) under HFNC, p = 0.04].
- However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
- Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
-Conclusions
-id="Par4"&gt;Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
- Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
-</t>
-  </si>
-  <si>
-    <t>[Ke%Wang%NULL%0,   Wei%Zhao%NULL%1,   Ji%Li%NULL%1,   Weiwei%Shu%shuweiwei361@163.com%1,   Jun%Duan%duanjun412589@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
- Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
- However, the experience of HFNC in this population is lacking.
-Methods
-We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
- HFNC failure was defined by the need of NIV or intubation as rescue therapy.
-Results
-id="Par3"&gt;Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
- The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
- 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
- Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
- 23 (22–25), p = 0.03].
- However, it did not in the unsuccessful group.
- After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
- 114 (IQR: 79–130) under HFNC, p = 0.04].
- However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
- Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
-Conclusions
-id="Par4"&gt;Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
- Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
-</t>
-  </si>
-  <si>
-    <t>[Ke%Wang%NULL%0,    Wei%Zhao%NULL%1,    Ji%Li%NULL%1,    Weiwei%Shu%shuweiwei361@163.com%1,    Jun%Duan%duanjun412589@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
- Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
- However, the experience of HFNC in this population is lacking.
-Methods
-We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
- HFNC failure was defined by the need of NIV or intubation as rescue therapy.
-Results
-Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
- The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
- 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
- Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
- 23 (22–25), p = 0.03].
- However, it did not in the unsuccessful group.
- After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
- 114 (IQR: 79–130) under HFNC, p = 0.04].
- However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
- Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
-Conclusions
-id="Par4"&gt;Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
- Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
-</t>
-  </si>
-  <si>
-    <t>[Ke%Wang%NULL%0,     Wei%Zhao%NULL%1,     Ji%Li%NULL%2,     Weiwei%Shu%shuweiwei361@163.com%1,     Jun%Duan%duanjun412589@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
- Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
- However, the experience of HFNC in this population is lacking.
-Methods
-We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
- HFNC failure was defined by the need of NIV or intubation as rescue therapy.
-Results
-Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
- The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
- 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
- Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
- 23 (22–25), p = 0.03].
- However, it did not in the unsuccessful group.
- After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
- 114 (IQR: 79–130) under HFNC, p = 0.04].
- However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
- Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
-Conclusions
-Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
- Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
-</t>
-  </si>
-  <si>
-    <t>[Ke%Wang%NULL%0,      Wei%Zhao%NULL%1,      Ji%Li%NULL%1,      Weiwei%Shu%shuweiwei361@163.com%1,      Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1076,10 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="91">
   <si>
     <t>Doi</t>
   </si>
@@ -384,6 +384,45 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,  Wei%Zhao%NULL%1,  Ji%Li%NULL%1,  Weiwei%Shu%shuweiwei361@163.com%1,  Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,   Ying%Chen%NULL%0,   Ruzheng%Lin%NULL%1,   Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,   Yuanyuan%Xing%NULL%3,   Yu%Xiao%NULL%0,   Liping%Deng%NULL%0,   Qiu%Zhao%NULL%3,   Hongling%Wang%NULL%3,   Yong%Xiong%NULL%0,   Zhenshun%Cheng%NULL%0,   Shicheng%Gao%NULL%0,   Ke%Liang%NULL%0,   Mingqi%Luo%NULL%0,   Tielong%Chen%NULL%3,   Shihui%Song%NULL%0,   Zhiyong%Ma%NULL%0,   Xiaoping%Chen%NULL%0,   Ruiying%Zheng%NULL%3,   Qian%Cao%NULL%3,   Fan%Wang%fanndywang@foxmail.com%0,   Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,   Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,   Yongzhen%Fan%NULL%0,   Ming%Chen%NULL%0,   Xiaoyan%Wu%NULL%0,   Lin%Zhang%NULL%0,   Tao%He%NULL%0,   Hairong%Wang%NULL%0,   Jing%Wan%NULL%0,   Xinghuan%Wang%NULL%0,   Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,   Bijan J.%Ghassemieh%NULL%0,   Michelle%Nichols%NULL%0,   Richard%Kim%NULL%0,   Keith R.%Jerome%NULL%0,   Arun K.%Nalla%NULL%0,   Alexander L.%Greninger%NULL%0,   Sudhakar%Pipavath%NULL%0,   Mark M.%Wurfel%NULL%0,   Laura%Evans%NULL%0,   Patricia A.%Kritek%NULL%0,   T. Eoin%West%NULL%0,   Andrew%Luks%NULL%0,   Anthony%Gerbino%NULL%0,   Chris R.%Dale%NULL%0,   Jason D.%Goldman%NULL%0,   Shane%O’Mahony%NULL%0,   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%0,   Xuan%Dong%NULL%0,   Jieming%Qu%NULL%0,   Fengyun%Gong%NULL%0,   Yang%Han%NULL%0,   Yang%Qiu%NULL%0,   Jingli%Wang%NULL%0,   Ying%Liu%NULL%0,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%11,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%11,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%11,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%11,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%11,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%11,   Yi%Zhang%NULL%11,   Hua%Chen%NULL%11,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,   Wei%Zhao%NULL%1,   Ji%Li%NULL%1,   Weiwei%Shu%shuweiwei361@163.com%1,   Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
   </si>
 </sst>
 </file>
@@ -700,6 +739,9 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -726,6 +768,9 @@
       <c r="H2" t="s">
         <v>28</v>
       </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -741,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -751,6 +796,9 @@
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -767,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -777,6 +825,9 @@
       </c>
       <c r="H4" t="s">
         <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -793,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -803,6 +854,9 @@
       </c>
       <c r="H5" t="s">
         <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -819,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -829,6 +883,9 @@
       </c>
       <c r="H6" t="s">
         <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -845,7 +902,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -855,6 +912,9 @@
       </c>
       <c r="H7" t="s">
         <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -882,6 +942,9 @@
       <c r="H8" t="s">
         <v>28</v>
       </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -908,6 +971,9 @@
       <c r="H9" t="s">
         <v>28</v>
       </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -934,6 +1000,9 @@
       <c r="H10" t="s">
         <v>28</v>
       </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -949,7 +1018,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -959,6 +1028,9 @@
       </c>
       <c r="H11" t="s">
         <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -986,6 +1058,9 @@
       <c r="H12" t="s">
         <v>28</v>
       </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1012,6 +1087,9 @@
       <c r="H13" t="s">
         <v>28</v>
       </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1027,7 +1105,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1037,6 +1115,9 @@
       </c>
       <c r="H14" t="s">
         <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -1053,7 +1134,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1063,6 +1144,9 @@
       </c>
       <c r="H15" t="s">
         <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1163,7 @@
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
@@ -1089,6 +1173,9 @@
       </c>
       <c r="H16" t="s">
         <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="151">
   <si>
     <t>Doi</t>
   </si>
@@ -423,6 +423,240 @@
   </si>
   <si>
     <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>Presenting characteristics, comorbidities, and outcomes among 5700 patients hospitalized with COVID-19 in the New York City area</t>
+  </si>
+  <si>
+    <t>Importance:  There is limited information describing the presenting characteristics and outcomes of US patients requiring hospitalization for coronavirus disease 2019 (COVID-19).
+\n\n\n\n\n\n\n\nObjective:  To describe the clinical characteristics and outcomes of patients with COVID-19 hospitalized in a US health care system.
+\n\n\n\n\n\n\n\nDesign, Setting, and Participants:  Case series of patients with COVID-19 admitted to 12 hospitals in New York City, Long Island, and Westchester County, New York, within the Northwell Health system.
+ The study included all sequentially hospitalized patients between March 1, 2020, and April 4, 2020, inclusive of these dates.
+\n\n\n\n\n\n\n\nExposures:  Confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection by positive result on polymerase chain reaction testing of a nasopharyngeal sample among patients requiring admission.
+\n\n\n\n\n\n\n\nMain Outcomes and Measures:  Clinical outcomes during hospitalization, such as invasive mechanical ventilation, kidney replacement therapy, and death.
+ Demographics, baseline comorbidities, presenting vital signs, and test results were also collected.
+\n\n\n\n\n\n\n\nResults:  A total of 5700 patients were included (median age, 63 years [interquartile range {IQR}, 52-75; range, 0-107 years]; 39.7% female).
+ The most common comorbidities were hypertension (3026; 56.6%), obesity (1737; 41.7%), and diabetes (1808; 33.8%).
+ At triage, 30.7% of patients were febrile, 17.3% had a respiratory rate greater than 24 breaths\/min, and 27.8% received supplemental oxygen.
+ The rate of respiratory virus co-infection was 2.1%.
+ Outcomes were assessed for 2634 patients who were discharged or had died at the study end point.
+ During hospitalization, 373 patients (14.2%) (median age, 68 years [IQR, 56-78]; 33.5% female) were treated in the intensive care unit care, 320 (12.2%) received invasive mechanical ventilation, 81 (3.2%) were treated with kidney replacement therapy, and 553 (21%) died.
+ As of April 4, 2020, for patients requiring mechanical ventilation (n\u2009=\u20091151, 20.2%), 38 (3.3%) were discharged alive, 282 (24.5%) died, and 831 (72.2%) remained in hospital.
+ The median postdischarge follow-up time was 4.4 days (IQR, 2.2-9.3).
+ A total of 45 patients (2.2%) were readmitted during the study period.
+ The median time to readmission was 3 days (IQR, 1.0-4.5) for readmitted patients.
+ Among the 3066 patients who remained hospitalized at the final study follow-up date (median age, 65 years [IQR, 54-75]), the median follow-up at time of censoring was 4.5 days (IQR, 2.4-8.1).
+\n\n\n\n\n\n\n\nConclusions and Relevance:  This case series provides characteristics and early outcomes of sequentially hospitalized patients with confirmed COVID-19 in the New York City area</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0, Becker%L.B.%coreGivesNoEmail%0, Chelico%J.D.%coreGivesNoEmail%0, Cohen%S.L.%coreGivesNoEmail%0, Cookingham%J.%coreGivesNoEmail%0, Coppa%K.%coreGivesNoEmail%0, Crawford%J.M.%coreGivesNoEmail%0, Davidson%K.W.%coreGivesNoEmail%0, Diefenbach%M.A.%coreGivesNoEmail%0, Dominello%A.J.%coreGivesNoEmail%0, Duer-Hefele%J.%coreGivesNoEmail%0, Falzon%L.%coreGivesNoEmail%0, Gitlin%J.%coreGivesNoEmail%0, Hajizadeh%N.%coreGivesNoEmail%0, Harvin%T.G.%coreGivesNoEmail%0, Hirsch%J.S.%coreGivesNoEmail%0, Hirschwerk%D.A.%coreGivesNoEmail%0, Kim%E.J.%coreGivesNoEmail%0, Kozel%Z.M.%coreGivesNoEmail%0, Marrast%L.M.%coreGivesNoEmail%0, McGinn%T.%coreGivesNoEmail%0, Mogavero%J.N.%coreGivesNoEmail%0, Narasimhan%M.%coreGivesNoEmail%0, Osorio%G.A.%coreGivesNoEmail%0, Qiu%M.%coreGivesNoEmail%0, Richardson%S.%coreGivesNoEmail%0, Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,    Ying%Chen%NULL%1,    Ruzheng%Lin%NULL%1,    Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,    Yuanyuan%Xing%NULL%3,    Yu%Xiao%NULL%0,    Liping%Deng%NULL%3,    Qiu%Zhao%NULL%3,    Hongling%Wang%NULL%3,    Yong%Xiong%NULL%4,    Zhenshun%Cheng%NULL%9,    Shicheng%Gao%NULL%3,    Ke%Liang%NULL%3,    Mingqi%Luo%NULL%3,    Tielong%Chen%NULL%3,    Shihui%Song%NULL%3,    Zhiyong%Ma%NULL%3,    Xiaoping%Chen%NULL%3,    Ruiying%Zheng%NULL%3,    Qian%Cao%NULL%3,    Fan%Wang%fanndywang@foxmail.com%0,    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,    Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,    Yongzhen%Fan%NULL%2,    Ming%Chen%NULL%2,    Xiaoyan%Wu%NULL%2,    Lin%Zhang%NULL%2,    Tao%He%NULL%2,    Hairong%Wang%NULL%2,    Jing%Wan%NULL%2,    Xinghuan%Wang%NULL%0,    Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%7,    Lili%Ren%NULL%6,    Jianping%Zhao%NULL%13,    Yi%Hu%NULL%11,    Li%Zhang%NULL%9,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%6,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%6,    Xuelei%Xie%NULL%6,    Wen%Yin%NULL%6,    Hui%Li%NULL%0,    Min%Liu%NULL%6,    Yan%Xiao%NULL%6,    Hong%Gao%NULL%6,    Li%Guo%NULL%6,    Jungang%Xie%NULL%8,    Guangfa%Wang%NULL%6,    Rongmeng%Jiang%NULL%6,    Zhancheng%Gao%NULL%6,    Qi%Jin%NULL%6,    Jianwei%Wang%wangjw28@163.com%6,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Propuesta de adecuaci\u00f3n  de los protocolos de actuaci\u00f3n en cardiolog\u00eda intervencionista durante la COVID-19</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0, Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0, Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0, Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0, Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
+  </si>
+  <si>
+    <t>Introduction: the mechanisms that are suggested as determinant in the vulnerability of patients with heart failure to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and which cause the respiratory syndrome labeled COVID-19 (Coronavirus Infectious Disease-19), has revealed controversial.
+ Objective: to gather information on the pathophysiological features of acute heart failure in the context of COVID-19. Method: concerning this topic, from September to November 2020 at the Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d in Santiago de Cuba, a narrative review was carried out.
+ The search was conducted checking the databases Pubmed, Infomed and SciELO, without date restriction, and in Spanish and English language.
+ Development: the mechanisms involved on the pathophysiological features of heart failure in patients with this infectious disease revealed uncertainty.
+ Myocardial damage is achievement of two aspects, the direct effect of viral respiratory infection on the myocyte, which is expressed as a local inflammatory response, and the heart participation as a target organ to the systemic and inappropriate inflammatory response, generated by a marked cytokines release.
+ The last aspect referred also causes endothelial damage that triggers thromboembolic and ischemic complications, systolic and diastolic dysfunction of the heart, and ultimately leads to multiorgan system failure.
+Conclusions: despite the advances in understanding the etiopathogenesis of this disease, the pathophysiological mechanisms that determine on the heart failure still require to be precisely clarified, although the influence of the inappropriate inflammatory response, induced by cytokines, it is recognized in the onset myocardial damage.
+Introducci\u00f3n: se revelan controversias respecto a los mecanismos que determinan la vulnerabilidad de los pacientes con insuficiencia cardiaca a la infecci\u00f3n por el virus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), que produce el s\u00edndrome respiratorio llamado Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: recopilar informaci\u00f3n sobre la fisiopatolog\u00eda de la insuficiencia cardiaca aguda en el contexto de la COVID-19.M\u00e9todo: en el Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d de Santiago de Cuba, entre septiembre y noviembre del 2020, se realiz\u00f3 una revisi\u00f3n narrativa sobre este tema.
+ La b\u00fasqueda se efectu\u00f3 consultando las bases de datos Pubmed, Infomed y SciELO, sin restricci\u00f3n de fecha, en los idiomas espa\u00f1ol e ingl\u00e9s.
+ Desarrollo: se manifiestan incertidumbre en los mecanismos implicados en la fisiopatolog\u00eda de la insuficiencia cardiaca de los pacientes con esta enfermedad infecciosa.
+ El da\u00f1o mioc\u00e1rdico se debe a los efectos directos de la infecci\u00f3n viral sobre el miocito, que se expresa como una respuesta inflamatoria local y a la participaci\u00f3n del coraz\u00f3n como \u00f3rgano diana de respuesta inflamatoria sist\u00e9mica e inapropiada generada por la marcada liberaci\u00f3n de citocinas.
+ Esta \u00faltima, adem\u00e1s, genera un da\u00f1o endotelial que desencadena complicaciones tromboemb\u00f3licas e isqu\u00e9micas, disfunci\u00f3n sistodiast\u00f3lica del coraz\u00f3n, y finalmente la falla multiorg\u00e1nica.
+ Conclusiones: a pesar de los avances en el conocimiento de la etiopatogenia de esta enfermedad, a\u00fan se requiere que se esclarezcan con precisi\u00f3n los mecanismos fisiopatol\u00f3gicos que determinan la presentaci\u00f3n de la insuficiencia cardiaca, si bien se reconoce la influencia de la respuesta inflamatoria inapropiada, inducida por citoquinas, en la presentaci\u00f3n del da\u00f1o mioc\u00e1rdico.
+Introdu\u00e7\u00e3o: revelam-se controv\u00e9rsias a respeito dos mecanismos que determinam a vulnerabilidade dos pacientes com insufici\u00eancia card\u00edaca \u00e0 infec\u00e7\u00e3o pelo v\u00edrus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), gerador da s\u00edndrome respirat\u00f3ria denominada Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: coletar informa\u00e7\u00f5es sobre a fisiopatologia da insufici\u00eancia card\u00edaca aguda no contexto da COVID-19.M\u00e9todo: na Policl\u00ednica Comunit\u00e1ria \u0022Ram\u00f3n L\u00f3pez Pe\u00f1a\u0022 de Santiago de Cuba, entre setembro e novembro de 2020, foi realizada uma revis\u00e3o narrativa sobre o tema.
+ A busca foi realizada por meio de consulta \u00e0s bases de dados Pubmed, Infomed e SciELO, sem restri\u00e7\u00e3o de datas, nos idiomas espanhol e ingl\u00eas.
+ Desenvolvimento: a incerteza se manifesta nos mecanismos envolvidos na fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com essa doen\u00e7a infecciosa.
+ O dano mioc\u00e1rdico se deve aos efeitos diretos da infec\u00e7\u00e3o viral no mi\u00f3cito, que se expressa como resposta inflamat\u00f3ria local, e ao envolvimento do cora\u00e7\u00e3o como \u00f3rg\u00e3o alvo da resposta inflamat\u00f3ria sist\u00eamica e inadequada gerada pela libera\u00e7\u00e3o acentuada de citocinas.
+ Esta \u00faltima tamb\u00e9m gera dano endotelial que desencadeia complica\u00e7\u00f5es tromboemb\u00f3licas e isqu\u00eamicas, disfun\u00e7\u00e3o card\u00edaca sistodiast\u00f3lica e, finalmente, fal\u00eancia de m\u00faltiplos \u00f3rg\u00e3os.
+ Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0, Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>Baseline Characteristics and Outcomes of 1591 Patients Infected With SARS-CoV-2 Admitted to ICUs of the Lombardy Region, Italy</t>
+  </si>
+  <si>
+    <t>Importance  In December 2019, a novel coronavirus (severe acute respiratory syndrome coronavirus 2 [SARS-CoV-2]) emerged in China and has spread globally, creating a pandemic.
+ Information about the clinical characteristics of infected patients who require intensive care is limited.
+\r\n\r\nObjective  To characterize patients with coronavirus disease 2019 (COVID-19) requiring treatment in an intensive care unit (ICU) in the Lombardy region of Italy.
+\r\n\r\nDesign, Setting, and Participants  Retrospective case series of 1591 consecutive patients with laboratory-confirmed COVID-19 referred for ICU admission to the coordinator center (Fondazione IRCCS Ca\u2019 Granda Ospedale Maggiore Policlinico, Milan, Italy) of the COVID-19 Lombardy ICU Network and treated at one of the ICUs of the 72 hospitals in this network between February 20 and March 18, 2020. Date of final follow-up was March 25, 2020.\r\n\r\nExposures  SARS-CoV-2 infection confirmed by real-time reverse transcriptase\u2013polymerase chain reaction (RT-PCR) assay of nasal and pharyngeal swabs.
+\r\n\r\nMain Outcomes and Measures  Demographic and clinical data were collected, including data on clinical management, respiratory failure, and patient mortality.
+ Data were recorded by the coordinator center on an electronic worksheet during telephone calls by the staff of the COVID-19 Lombardy ICU Network.
+\r\n\r\nResults  Of the 1591 patients included in the study, the median (IQR) age was 63 (56-70) years and 1304 (82%) were male.
+ Of the 1043 patients with available data, 709 (68%) had at least 1 comorbidity and 509 (49%) had hypertension.
+ Among 1300 patients with available respiratory support data, 1287 (99% [95% CI, 98%-99%]) needed respiratory support, including 1150 (88% [95% CI, 87%-90%]) who received mechanical ventilation and 137 (11% [95% CI, 9%-12%]) who received noninvasive ventilation.
+ The median positive end-expiratory pressure (PEEP) was 14 (IQR, 12-16) cm H2O, and Fio2 was greater than 50% in 89% of patients.
+ The median Pao2\/Fio2 was 160 (IQR, 114-220).
+ The median PEEP level was not different between younger patients (n\u2009=\u2009503 aged \u226463 years) and older patients (n\u2009=\u2009514 aged \u226564 years) (14 [IQR, 12-15] vs 14 [IQR, 12-16] cm H2O, respectively; median difference, 0 [95% CI, 0-0]; P\u2009=\u2009.94).
+ Median Fio2 was lower in younger patients: 60% (IQR, 50%-80%) vs 70% (IQR, 50%-80%) (median difference, \u221210% [95% CI, \u221214% to 6%]; P\u2009=\u2009.006), and median Pao2\/Fio2 was higher in younger patients: 163.5 (IQR, 120-230) vs 156 (IQR, 110-205) (median difference, 7 [95% CI, \u22128 to 22]; P\u2009=\u2009.02).
+ Patients with hypertension (n\u2009=\u2009509) were older than those without hypertension (n\u2009=\u2009526) (median [IQR] age, 66 years [60-72] vs 62 years [54-68]; P\u2009\u0026lt;\u2009.001) and had lower Pao2\/Fio2 (median [IQR], 146 [105-214] vs 173 [120-222]; median difference, \u221227 [95% CI, \u221242 to \u221212]; P\u2009=\u2009.005).
+ Among the 1581 patients with ICU disposition data available as of March 25, 2020, 920 patients (58% [95% CI, 56%-61%]) were still in the ICU, 256 (16% [95% CI, 14%-18%]) were discharged from the ICU, and 405 (26% [95% CI, 23%-28%]) had died in the ICU.
+ Older patients (n\u2009=\u2009786; age \u226564 years) had higher mortality than younger patients (n\u2009=\u2009795; age \u226463 years) (36% vs 15%; difference, 21% [95% CI, 17%-26%]; P\u2009\u0026lt;\u2009.001).
+\r\n\r\nConclusions and Relevance  In this case series of critically ill patients with laboratory-confirmed COVID-19 admitted to ICUs in Lombardy, Italy, the majority were older men, a large proportion required mechanical ventilation and high levels of PEEP, and ICU mortality was 26%</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0, Cabrini%Luca%coreGivesNoEmail%2, Castelli%Antonio%coreGivesNoEmail%2, Cecconi%Maurizio%coreGivesNoEmail%2, Cereda%Danilo%coreGivesNoEmail%2, Coluccello%Antonio%coreGivesNoEmail%2, Foti%Giuseppe%coreGivesNoEmail%2, Fumagalli%Roberto%coreGivesNoEmail%2, Grasselli%Giacomo%coreGivesNoEmail%2, Iotti%Giorgio%coreGivesNoEmail%2, Latronico%Nicola%coreGivesNoEmail%2, Lorini%Luca%coreGivesNoEmail%2, Merler%Stefano%coreGivesNoEmail%2, Natalini%Giuseppe%coreGivesNoEmail%2, Pesenti%Antonio%coreGivesNoEmail%2, Piatti%Alessandra%coreGivesNoEmail%2, Ranieri%Marco Vito%coreGivesNoEmail%2, Scandroglio%Anna Mara%coreGivesNoEmail%2, Storti%Enrico%coreGivesNoEmail%2, Zanella%Alberto%coreGivesNoEmail%2, Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,    Bijan J.%Ghassemieh%NULL%4,    Michelle%Nichols%NULL%4,    Richard%Kim%NULL%4,    Keith R.%Jerome%NULL%4,    Arun K.%Nalla%NULL%4,    Alexander L.%Greninger%NULL%4,    Sudhakar%Pipavath%NULL%4,    Mark M.%Wurfel%NULL%4,    Laura%Evans%NULL%4,    Patricia A.%Kritek%NULL%4,    T. Eoin%West%NULL%4,    Andrew%Luks%NULL%4,    Anthony%Gerbino%NULL%4,    Chris R.%Dale%NULL%4,    Jason D.%Goldman%NULL%4,    Shane%O’Mahony%NULL%4,    Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,    Min%Zhou%NULL%7,    Xuan%Dong%NULL%3,    Jieming%Qu%NULL%7,    Fengyun%Gong%NULL%3,    Yang%Han%NULL%3,    Yang%Qiu%NULL%3,    Jingli%Wang%NULL%3,    Ying%Liu%NULL%0,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%11,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%3,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,    Wei%Zhao%NULL%1,    Ji%Li%NULL%1,    Weiwei%Shu%shuweiwei361@163.com%1,    Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,  Becker%L.B.%coreGivesNoEmail%0,  Chelico%J.D.%coreGivesNoEmail%0,  Cohen%S.L.%coreGivesNoEmail%0,  Cookingham%J.%coreGivesNoEmail%0,  Coppa%K.%coreGivesNoEmail%0,  Crawford%J.M.%coreGivesNoEmail%0,  Davidson%K.W.%coreGivesNoEmail%0,  Diefenbach%M.A.%coreGivesNoEmail%0,  Dominello%A.J.%coreGivesNoEmail%0,  Duer-Hefele%J.%coreGivesNoEmail%0,  Falzon%L.%coreGivesNoEmail%0,  Gitlin%J.%coreGivesNoEmail%0,  Hajizadeh%N.%coreGivesNoEmail%0,  Harvin%T.G.%coreGivesNoEmail%0,  Hirsch%J.S.%coreGivesNoEmail%0,  Hirschwerk%D.A.%coreGivesNoEmail%0,  Kim%E.J.%coreGivesNoEmail%0,  Kozel%Z.M.%coreGivesNoEmail%0,  Marrast%L.M.%coreGivesNoEmail%0,  McGinn%T.%coreGivesNoEmail%0,  Mogavero%J.N.%coreGivesNoEmail%0,  Narasimhan%M.%coreGivesNoEmail%0,  Osorio%G.A.%coreGivesNoEmail%0,  Qiu%M.%coreGivesNoEmail%0,  Richardson%S.%coreGivesNoEmail%0,  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,     Ying%Chen%NULL%1,     Ruzheng%Lin%NULL%1,     Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,     Yuanyuan%Xing%NULL%3,     Yu%Xiao%NULL%0,     Liping%Deng%NULL%3,     Qiu%Zhao%NULL%3,     Hongling%Wang%NULL%3,     Yong%Xiong%NULL%4,     Zhenshun%Cheng%NULL%9,     Shicheng%Gao%NULL%3,     Ke%Liang%NULL%3,     Mingqi%Luo%NULL%3,     Tielong%Chen%NULL%3,     Shihui%Song%NULL%3,     Zhiyong%Ma%NULL%3,     Xiaoping%Chen%NULL%3,     Ruiying%Zheng%NULL%3,     Qian%Cao%NULL%3,     Fan%Wang%fanndywang@foxmail.com%0,     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,     Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,     Yongzhen%Fan%NULL%3,     Ming%Chen%NULL%3,     Xiaoyan%Wu%NULL%3,     Lin%Zhang%NULL%3,     Tao%He%NULL%3,     Hairong%Wang%NULL%3,     Jing%Wan%NULL%3,     Xinghuan%Wang%NULL%0,     Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%7,     Lili%Ren%NULL%6,     Jianping%Zhao%NULL%14,     Yi%Hu%NULL%11,     Li%Zhang%NULL%10,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%6,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%6,     Xuelei%Xie%NULL%6,     Wen%Yin%NULL%6,     Hui%Li%NULL%0,     Min%Liu%NULL%7,     Yan%Xiao%NULL%7,     Hong%Gao%NULL%8,     Li%Guo%NULL%7,     Jungang%Xie%NULL%8,     Guangfa%Wang%NULL%6,     Rongmeng%Jiang%NULL%6,     Zhancheng%Gao%NULL%6,     Qi%Jin%NULL%7,     Jianwei%Wang%wangjw28@163.com%6,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,  Cabrini%Luca%coreGivesNoEmail%2,  Castelli%Antonio%coreGivesNoEmail%2,  Cecconi%Maurizio%coreGivesNoEmail%2,  Cereda%Danilo%coreGivesNoEmail%2,  Coluccello%Antonio%coreGivesNoEmail%2,  Foti%Giuseppe%coreGivesNoEmail%2,  Fumagalli%Roberto%coreGivesNoEmail%2,  Grasselli%Giacomo%coreGivesNoEmail%2,  Iotti%Giorgio%coreGivesNoEmail%2,  Latronico%Nicola%coreGivesNoEmail%2,  Lorini%Luca%coreGivesNoEmail%2,  Merler%Stefano%coreGivesNoEmail%2,  Natalini%Giuseppe%coreGivesNoEmail%2,  Pesenti%Antonio%coreGivesNoEmail%2,  Piatti%Alessandra%coreGivesNoEmail%2,  Ranieri%Marco Vito%coreGivesNoEmail%2,  Scandroglio%Anna Mara%coreGivesNoEmail%2,  Storti%Enrico%coreGivesNoEmail%2,  Zanella%Alberto%coreGivesNoEmail%2,  Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,     Bijan J.%Ghassemieh%NULL%5,     Michelle%Nichols%NULL%5,     Richard%Kim%NULL%5,     Keith R.%Jerome%NULL%5,     Arun K.%Nalla%NULL%5,     Alexander L.%Greninger%NULL%5,     Sudhakar%Pipavath%NULL%5,     Mark M.%Wurfel%NULL%5,     Laura%Evans%NULL%5,     Patricia A.%Kritek%NULL%5,     T. Eoin%West%NULL%5,     Andrew%Luks%NULL%5,     Anthony%Gerbino%NULL%5,     Chris R.%Dale%NULL%5,     Jason D.%Goldman%NULL%5,     Shane%O’Mahony%NULL%5,     Carmen%Mikacenic%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%6,     Xuan%Dong%NULL%3,     Jieming%Qu%NULL%6,     Fengyun%Gong%NULL%3,     Yang%Han%NULL%3,     Yang%Qiu%NULL%3,     Jingli%Wang%NULL%3,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%11,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%3,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,     Wei%Zhao%NULL%1,     Ji%Li%NULL%1,     Weiwei%Shu%shuweiwei361@163.com%1,     Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,      Ying%Chen%NULL%1,      Ruzheng%Lin%NULL%1,      Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,      Yuanyuan%Xing%NULL%3,      Yu%Xiao%NULL%0,      Liping%Deng%NULL%3,      Qiu%Zhao%NULL%3,      Hongling%Wang%NULL%3,      Yong%Xiong%NULL%4,      Zhenshun%Cheng%NULL%9,      Shicheng%Gao%NULL%3,      Ke%Liang%NULL%3,      Mingqi%Luo%NULL%3,      Tielong%Chen%NULL%3,      Shihui%Song%NULL%3,      Zhiyong%Ma%NULL%3,      Xiaoping%Chen%NULL%3,      Ruiying%Zheng%NULL%3,      Qian%Cao%NULL%3,      Fan%Wang%fanndywang@foxmail.com%0,      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,      Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,      Yongzhen%Fan%NULL%3,      Ming%Chen%NULL%3,      Xiaoyan%Wu%NULL%3,      Lin%Zhang%NULL%3,      Tao%He%NULL%3,      Hairong%Wang%NULL%3,      Jing%Wan%NULL%3,      Xinghuan%Wang%NULL%0,      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%7,      Lili%Ren%NULL%6,      Jianping%Zhao%NULL%14,      Yi%Hu%NULL%11,      Li%Zhang%NULL%10,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%6,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%6,      Xuelei%Xie%NULL%6,      Wen%Yin%NULL%6,      Hui%Li%NULL%0,      Min%Liu%NULL%7,      Yan%Xiao%NULL%7,      Hong%Gao%NULL%8,      Li%Guo%NULL%7,      Jungang%Xie%NULL%8,      Guangfa%Wang%NULL%6,      Rongmeng%Jiang%NULL%6,      Zhancheng%Gao%NULL%6,      Qi%Jin%NULL%7,      Jianwei%Wang%wangjw28@163.com%6,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,   Cabrini%Luca%coreGivesNoEmail%2,   Castelli%Antonio%coreGivesNoEmail%2,   Cecconi%Maurizio%coreGivesNoEmail%2,   Cereda%Danilo%coreGivesNoEmail%2,   Coluccello%Antonio%coreGivesNoEmail%2,   Foti%Giuseppe%coreGivesNoEmail%2,   Fumagalli%Roberto%coreGivesNoEmail%2,   Grasselli%Giacomo%coreGivesNoEmail%2,   Iotti%Giorgio%coreGivesNoEmail%2,   Latronico%Nicola%coreGivesNoEmail%2,   Lorini%Luca%coreGivesNoEmail%2,   Merler%Stefano%coreGivesNoEmail%2,   Natalini%Giuseppe%coreGivesNoEmail%2,   Pesenti%Antonio%coreGivesNoEmail%2,   Piatti%Alessandra%coreGivesNoEmail%2,   Ranieri%Marco Vito%coreGivesNoEmail%2,   Scandroglio%Anna Mara%coreGivesNoEmail%2,   Storti%Enrico%coreGivesNoEmail%2,   Zanella%Alberto%coreGivesNoEmail%2,   Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,      Bijan J.%Ghassemieh%NULL%4,      Michelle%Nichols%NULL%4,      Richard%Kim%NULL%4,      Keith R.%Jerome%NULL%4,      Arun K.%Nalla%NULL%4,      Alexander L.%Greninger%NULL%4,      Sudhakar%Pipavath%NULL%4,      Mark M.%Wurfel%NULL%4,      Laura%Evans%NULL%4,      Patricia A.%Kritek%NULL%4,      T. Eoin%West%NULL%4,      Andrew%Luks%NULL%4,      Anthony%Gerbino%NULL%4,      Chris R.%Dale%NULL%4,      Jason D.%Goldman%NULL%4,      Shane%O’Mahony%NULL%4,      Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%6,      Xuan%Dong%NULL%3,      Jieming%Qu%NULL%6,      Fengyun%Gong%NULL%3,      Yang%Han%NULL%3,      Yang%Qiu%NULL%3,      Jingli%Wang%NULL%3,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%10,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%3,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,      Wei%Zhao%NULL%1,      Ji%Li%NULL%1,      Weiwei%Shu%shuweiwei361@163.com%1,      Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%0,    Chelico%J.D.%coreGivesNoEmail%0,    Cohen%S.L.%coreGivesNoEmail%0,    Cookingham%J.%coreGivesNoEmail%0,    Coppa%K.%coreGivesNoEmail%0,    Crawford%J.M.%coreGivesNoEmail%0,    Davidson%K.W.%coreGivesNoEmail%0,    Diefenbach%M.A.%coreGivesNoEmail%0,    Dominello%A.J.%coreGivesNoEmail%0,    Duer-Hefele%J.%coreGivesNoEmail%0,    Falzon%L.%coreGivesNoEmail%0,    Gitlin%J.%coreGivesNoEmail%0,    Hajizadeh%N.%coreGivesNoEmail%0,    Harvin%T.G.%coreGivesNoEmail%0,    Hirsch%J.S.%coreGivesNoEmail%0,    Hirschwerk%D.A.%coreGivesNoEmail%0,    Kim%E.J.%coreGivesNoEmail%0,    Kozel%Z.M.%coreGivesNoEmail%0,    Marrast%L.M.%coreGivesNoEmail%0,    McGinn%T.%coreGivesNoEmail%0,    Mogavero%J.N.%coreGivesNoEmail%0,    Narasimhan%M.%coreGivesNoEmail%0,    Osorio%G.A.%coreGivesNoEmail%0,    Qiu%M.%coreGivesNoEmail%0,    Richardson%S.%coreGivesNoEmail%0,    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,       Ying%Chen%NULL%1,       Ruzheng%Lin%NULL%1,       Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,       Yuanyuan%Xing%NULL%3,       Yu%Xiao%NULL%0,       Liping%Deng%NULL%3,       Qiu%Zhao%NULL%3,       Hongling%Wang%NULL%3,       Yong%Xiong%NULL%4,       Zhenshun%Cheng%NULL%9,       Shicheng%Gao%NULL%3,       Ke%Liang%NULL%3,       Mingqi%Luo%NULL%3,       Tielong%Chen%NULL%3,       Shihui%Song%NULL%3,       Zhiyong%Ma%NULL%3,       Xiaoping%Chen%NULL%3,       Ruiying%Zheng%NULL%3,       Qian%Cao%NULL%3,       Fan%Wang%fanndywang@foxmail.com%0,       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,       Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,       Yongzhen%Fan%NULL%3,       Ming%Chen%NULL%3,       Xiaoyan%Wu%NULL%3,       Lin%Zhang%NULL%3,       Tao%He%NULL%3,       Hairong%Wang%NULL%3,       Jing%Wan%NULL%3,       Xinghuan%Wang%NULL%0,       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%7,       Lili%Ren%NULL%6,       Jianping%Zhao%NULL%14,       Yi%Hu%NULL%11,       Li%Zhang%NULL%10,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%6,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%6,       Xuelei%Xie%NULL%6,       Wen%Yin%NULL%6,       Hui%Li%NULL%0,       Min%Liu%NULL%7,       Yan%Xiao%NULL%7,       Hong%Gao%NULL%8,       Li%Guo%NULL%7,       Jungang%Xie%NULL%8,       Guangfa%Wang%NULL%6,       Rongmeng%Jiang%NULL%6,       Zhancheng%Gao%NULL%6,       Qi%Jin%NULL%7,       Jianwei%Wang%wangjw28@163.com%6,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,    Cabrini%Luca%coreGivesNoEmail%2,    Castelli%Antonio%coreGivesNoEmail%2,    Cecconi%Maurizio%coreGivesNoEmail%2,    Cereda%Danilo%coreGivesNoEmail%2,    Coluccello%Antonio%coreGivesNoEmail%2,    Foti%Giuseppe%coreGivesNoEmail%2,    Fumagalli%Roberto%coreGivesNoEmail%2,    Grasselli%Giacomo%coreGivesNoEmail%2,    Iotti%Giorgio%coreGivesNoEmail%2,    Latronico%Nicola%coreGivesNoEmail%2,    Lorini%Luca%coreGivesNoEmail%2,    Merler%Stefano%coreGivesNoEmail%2,    Natalini%Giuseppe%coreGivesNoEmail%2,    Pesenti%Antonio%coreGivesNoEmail%2,    Piatti%Alessandra%coreGivesNoEmail%2,    Ranieri%Marco Vito%coreGivesNoEmail%2,    Scandroglio%Anna Mara%coreGivesNoEmail%2,    Storti%Enrico%coreGivesNoEmail%2,    Zanella%Alberto%coreGivesNoEmail%2,    Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,       Bijan J.%Ghassemieh%NULL%4,       Michelle%Nichols%NULL%4,       Richard%Kim%NULL%4,       Keith R.%Jerome%NULL%4,       Arun K.%Nalla%NULL%4,       Alexander L.%Greninger%NULL%4,       Sudhakar%Pipavath%NULL%4,       Mark M.%Wurfel%NULL%4,       Laura%Evans%NULL%4,       Patricia A.%Kritek%NULL%4,       T. Eoin%West%NULL%4,       Andrew%Luks%NULL%4,       Anthony%Gerbino%NULL%4,       Chris R.%Dale%NULL%4,       Jason D.%Goldman%NULL%4,       Shane%O’Mahony%NULL%4,       Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%6,       Xuan%Dong%NULL%3,       Jieming%Qu%NULL%6,       Fengyun%Gong%NULL%3,       Yang%Han%NULL%3,       Yang%Qiu%NULL%3,       Jingli%Wang%NULL%3,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%10,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%3,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,       Wei%Zhao%NULL%1,       Ji%Li%NULL%1,       Weiwei%Shu%shuweiwei361@163.com%1,       Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -751,19 +985,19 @@
         <v>43977.0</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -786,7 +1020,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -815,7 +1049,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -844,7 +1078,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -873,7 +1107,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -902,7 +1136,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -925,19 +1159,19 @@
         <v>44013.0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -954,19 +1188,19 @@
         <v>43907.0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -983,19 +1217,19 @@
         <v>43949.0</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -1018,7 +1252,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1105,7 +1339,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1134,7 +1368,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1163,7 +1397,7 @@
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="186">
   <si>
     <t>Doi</t>
   </si>
@@ -657,6 +657,111 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,       Wei%Zhao%NULL%1,       Ji%Li%NULL%1,       Weiwei%Shu%shuweiwei361@163.com%1,       Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%0,     Chelico%J.D.%coreGivesNoEmail%0,     Cohen%S.L.%coreGivesNoEmail%0,     Cookingham%J.%coreGivesNoEmail%0,     Coppa%K.%coreGivesNoEmail%0,     Crawford%J.M.%coreGivesNoEmail%0,     Davidson%K.W.%coreGivesNoEmail%0,     Diefenbach%M.A.%coreGivesNoEmail%0,     Dominello%A.J.%coreGivesNoEmail%0,     Duer-Hefele%J.%coreGivesNoEmail%0,     Falzon%L.%coreGivesNoEmail%0,     Gitlin%J.%coreGivesNoEmail%0,     Hajizadeh%N.%coreGivesNoEmail%0,     Harvin%T.G.%coreGivesNoEmail%0,     Hirsch%J.S.%coreGivesNoEmail%0,     Hirschwerk%D.A.%coreGivesNoEmail%0,     Kim%E.J.%coreGivesNoEmail%0,     Kozel%Z.M.%coreGivesNoEmail%0,     Marrast%L.M.%coreGivesNoEmail%0,     McGinn%T.%coreGivesNoEmail%0,     Mogavero%J.N.%coreGivesNoEmail%0,     Narasimhan%M.%coreGivesNoEmail%0,     Osorio%G.A.%coreGivesNoEmail%0,     Qiu%M.%coreGivesNoEmail%0,     Richardson%S.%coreGivesNoEmail%0,     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,        Ying%Chen%NULL%1,        Ruzheng%Lin%NULL%1,        Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,        Yuanyuan%Xing%NULL%1,        Yu%Xiao%NULL%0,        Liping%Deng%NULL%1,        Qiu%Zhao%NULL%1,        Hongling%Wang%NULL%1,        Yong%Xiong%NULL%3,        Zhenshun%Cheng%NULL%4,        Shicheng%Gao%NULL%1,        Ke%Liang%NULL%1,        Mingqi%Luo%NULL%1,        Tielong%Chen%NULL%1,        Shihui%Song%NULL%1,        Zhiyong%Ma%NULL%1,        Xiaoping%Chen%NULL%1,        Ruiying%Zheng%NULL%1,        Qian%Cao%NULL%1,        Fan%Wang%fanndywang@foxmail.com%0,        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,        Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,        Yongzhen%Fan%NULL%2,        Ming%Chen%NULL%2,        Xiaoyan%Wu%NULL%2,        Lin%Zhang%NULL%2,        Tao%He%NULL%2,        Hairong%Wang%NULL%2,        Jing%Wan%NULL%2,        Xinghuan%Wang%NULL%0,        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%4,        Lili%Ren%NULL%3,        Jianping%Zhao%NULL%10,        Yi%Hu%NULL%5,        Li%Zhang%NULL%5,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%3,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%3,        Xuelei%Xie%NULL%3,        Wen%Yin%NULL%3,        Hui%Li%NULL%0,        Min%Liu%NULL%4,        Yan%Xiao%NULL%4,        Hong%Gao%NULL%5,        Li%Guo%NULL%4,        Jungang%Xie%NULL%5,        Guangfa%Wang%NULL%3,        Rongmeng%Jiang%NULL%3,        Zhancheng%Gao%NULL%3,        Qi%Jin%NULL%4,        Jianwei%Wang%wangjw28@163.com%3,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,     Cabrini%Luca%coreGivesNoEmail%2,     Castelli%Antonio%coreGivesNoEmail%2,     Cecconi%Maurizio%coreGivesNoEmail%2,     Cereda%Danilo%coreGivesNoEmail%2,     Coluccello%Antonio%coreGivesNoEmail%2,     Foti%Giuseppe%coreGivesNoEmail%2,     Fumagalli%Roberto%coreGivesNoEmail%2,     Grasselli%Giacomo%coreGivesNoEmail%2,     Iotti%Giorgio%coreGivesNoEmail%2,     Latronico%Nicola%coreGivesNoEmail%2,     Lorini%Luca%coreGivesNoEmail%2,     Merler%Stefano%coreGivesNoEmail%2,     Natalini%Giuseppe%coreGivesNoEmail%2,     Pesenti%Antonio%coreGivesNoEmail%2,     Piatti%Alessandra%coreGivesNoEmail%2,     Ranieri%Marco Vito%coreGivesNoEmail%2,     Scandroglio%Anna Mara%coreGivesNoEmail%2,     Storti%Enrico%coreGivesNoEmail%2,     Zanella%Alberto%coreGivesNoEmail%2,     Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,        Bijan J.%Ghassemieh%NULL%4,        Michelle%Nichols%NULL%4,        Richard%Kim%NULL%4,        Keith R.%Jerome%NULL%4,        Arun K.%Nalla%NULL%4,        Alexander L.%Greninger%NULL%4,        Sudhakar%Pipavath%NULL%4,        Mark M.%Wurfel%NULL%4,        Laura%Evans%NULL%4,        Patricia A.%Kritek%NULL%4,        T. Eoin%West%NULL%4,        Andrew%Luks%NULL%4,        Anthony%Gerbino%NULL%4,        Chris R.%Dale%NULL%4,        Jason D.%Goldman%NULL%4,        Shane%O’Mahony%NULL%4,        Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7, Eric%Yim%xref no email%7, Lindy%Klaff%xref no email%7, Sharukh%Lokhandwala%xref no email%7, Francis X.%Riedo%xref no email%7, Maria%Chong%xref no email%7, Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%4,        Xuan%Dong%NULL%1,        Jieming%Qu%NULL%4,        Fengyun%Gong%NULL%1,        Yang%Han%NULL%1,        Yang%Qiu%NULL%1,        Jingli%Wang%NULL%1,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%6,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%1,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,        Wei%Zhao%NULL%1,        Ji%Li%NULL%1,        Weiwei%Shu%shuweiwei361@163.com%1,        Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%0,      Chelico%J.D.%coreGivesNoEmail%0,      Cohen%S.L.%coreGivesNoEmail%0,      Cookingham%J.%coreGivesNoEmail%0,      Coppa%K.%coreGivesNoEmail%0,      Crawford%J.M.%coreGivesNoEmail%0,      Davidson%K.W.%coreGivesNoEmail%0,      Diefenbach%M.A.%coreGivesNoEmail%0,      Dominello%A.J.%coreGivesNoEmail%0,      Duer-Hefele%J.%coreGivesNoEmail%0,      Falzon%L.%coreGivesNoEmail%0,      Gitlin%J.%coreGivesNoEmail%0,      Hajizadeh%N.%coreGivesNoEmail%0,      Harvin%T.G.%coreGivesNoEmail%0,      Hirsch%J.S.%coreGivesNoEmail%0,      Hirschwerk%D.A.%coreGivesNoEmail%0,      Kim%E.J.%coreGivesNoEmail%0,      Kozel%Z.M.%coreGivesNoEmail%0,      Marrast%L.M.%coreGivesNoEmail%0,      McGinn%T.%coreGivesNoEmail%0,      Mogavero%J.N.%coreGivesNoEmail%0,      Narasimhan%M.%coreGivesNoEmail%0,      Osorio%G.A.%coreGivesNoEmail%0,      Qiu%M.%coreGivesNoEmail%0,      Richardson%S.%coreGivesNoEmail%0,      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,         Ying%Chen%NULL%1,         Ruzheng%Lin%NULL%1,         Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,         Yuanyuan%Xing%NULL%1,         Yu%Xiao%NULL%0,         Liping%Deng%NULL%1,         Qiu%Zhao%NULL%1,         Hongling%Wang%NULL%1,         Yong%Xiong%NULL%3,         Zhenshun%Cheng%NULL%4,         Shicheng%Gao%NULL%1,         Ke%Liang%NULL%1,         Mingqi%Luo%NULL%1,         Tielong%Chen%NULL%1,         Shihui%Song%NULL%1,         Zhiyong%Ma%NULL%1,         Xiaoping%Chen%NULL%1,         Ruiying%Zheng%NULL%1,         Qian%Cao%NULL%1,         Fan%Wang%fanndywang@foxmail.com%0,         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,         Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,         Yongzhen%Fan%NULL%2,         Ming%Chen%NULL%2,         Xiaoyan%Wu%NULL%2,         Lin%Zhang%NULL%2,         Tao%He%NULL%2,         Hairong%Wang%NULL%2,         Jing%Wan%NULL%2,         Xinghuan%Wang%NULL%0,         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%4,         Lili%Ren%NULL%3,         Jianping%Zhao%NULL%10,         Yi%Hu%NULL%5,         Li%Zhang%NULL%5,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%3,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%3,         Xuelei%Xie%NULL%3,         Wen%Yin%NULL%3,         Hui%Li%NULL%0,         Min%Liu%NULL%4,         Yan%Xiao%NULL%4,         Hong%Gao%NULL%5,         Li%Guo%NULL%4,         Jungang%Xie%NULL%5,         Guangfa%Wang%NULL%3,         Rongmeng%Jiang%NULL%3,         Zhancheng%Gao%NULL%3,         Qi%Jin%NULL%4,         Jianwei%Wang%wangjw28@163.com%3,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,      Cabrini%Luca%coreGivesNoEmail%2,      Castelli%Antonio%coreGivesNoEmail%2,      Cecconi%Maurizio%coreGivesNoEmail%2,      Cereda%Danilo%coreGivesNoEmail%2,      Coluccello%Antonio%coreGivesNoEmail%2,      Foti%Giuseppe%coreGivesNoEmail%2,      Fumagalli%Roberto%coreGivesNoEmail%2,      Grasselli%Giacomo%coreGivesNoEmail%2,      Iotti%Giorgio%coreGivesNoEmail%2,      Latronico%Nicola%coreGivesNoEmail%2,      Lorini%Luca%coreGivesNoEmail%2,      Merler%Stefano%coreGivesNoEmail%2,      Natalini%Giuseppe%coreGivesNoEmail%2,      Pesenti%Antonio%coreGivesNoEmail%2,      Piatti%Alessandra%coreGivesNoEmail%2,      Ranieri%Marco Vito%coreGivesNoEmail%2,      Scandroglio%Anna Mara%coreGivesNoEmail%2,      Storti%Enrico%coreGivesNoEmail%2,      Zanella%Alberto%coreGivesNoEmail%2,      Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,         Bijan J.%Ghassemieh%NULL%4,         Michelle%Nichols%NULL%4,         Richard%Kim%NULL%4,         Keith R.%Jerome%NULL%4,         Arun K.%Nalla%NULL%4,         Alexander L.%Greninger%NULL%4,         Sudhakar%Pipavath%NULL%4,         Mark M.%Wurfel%NULL%4,         Laura%Evans%NULL%4,         Patricia A.%Kritek%NULL%4,         T. Eoin%West%NULL%4,         Andrew%Luks%NULL%4,         Anthony%Gerbino%NULL%4,         Chris R.%Dale%NULL%4,         Jason D.%Goldman%NULL%4,         Shane%O’Mahony%NULL%4,         Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,  Eric%Yim%xref no email%7,  Lindy%Klaff%xref no email%7,  Sharukh%Lokhandwala%xref no email%7,  Francis X.%Riedo%xref no email%7,  Maria%Chong%xref no email%7,  Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%4,         Xuan%Dong%NULL%1,         Jieming%Qu%NULL%4,         Fengyun%Gong%NULL%1,         Yang%Han%NULL%1,         Yang%Qiu%NULL%1,         Jingli%Wang%NULL%1,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%6,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%1,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,         Wei%Zhao%NULL%1,         Ji%Li%NULL%1,         Weiwei%Shu%shuweiwei361@163.com%1,         Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1096,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1020,7 +1125,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1049,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1078,7 +1183,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1107,7 +1212,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1136,7 +1241,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1165,7 +1270,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1194,7 +1299,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1223,7 +1328,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1252,7 +1357,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1275,22 +1380,22 @@
         <v>43949.0</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
         <v>40</v>
@@ -1304,22 +1409,22 @@
         <v>44013.0</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
@@ -1339,7 +1444,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1368,7 +1473,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1397,7 +1502,7 @@
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="216">
   <si>
     <t>Doi</t>
   </si>
@@ -762,6 +762,96 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,         Wei%Zhao%NULL%1,         Ji%Li%NULL%1,         Weiwei%Shu%shuweiwei361@163.com%1,         Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%0,       Chelico%J.D.%coreGivesNoEmail%0,       Cohen%S.L.%coreGivesNoEmail%0,       Cookingham%J.%coreGivesNoEmail%0,       Coppa%K.%coreGivesNoEmail%0,       Crawford%J.M.%coreGivesNoEmail%0,       Davidson%K.W.%coreGivesNoEmail%0,       Diefenbach%M.A.%coreGivesNoEmail%0,       Dominello%A.J.%coreGivesNoEmail%0,       Duer-Hefele%J.%coreGivesNoEmail%0,       Falzon%L.%coreGivesNoEmail%0,       Gitlin%J.%coreGivesNoEmail%0,       Hajizadeh%N.%coreGivesNoEmail%0,       Harvin%T.G.%coreGivesNoEmail%0,       Hirsch%J.S.%coreGivesNoEmail%0,       Hirschwerk%D.A.%coreGivesNoEmail%0,       Kim%E.J.%coreGivesNoEmail%0,       Kozel%Z.M.%coreGivesNoEmail%0,       Marrast%L.M.%coreGivesNoEmail%0,       McGinn%T.%coreGivesNoEmail%0,       Mogavero%J.N.%coreGivesNoEmail%0,       Narasimhan%M.%coreGivesNoEmail%0,       Osorio%G.A.%coreGivesNoEmail%0,       Qiu%M.%coreGivesNoEmail%0,       Richardson%S.%coreGivesNoEmail%0,       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,          Ying%Chen%NULL%1,          Ruzheng%Lin%NULL%1,          Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,          Yuanyuan%Xing%NULL%1,          Yu%Xiao%NULL%0,          Liping%Deng%NULL%1,          Qiu%Zhao%NULL%1,          Hongling%Wang%NULL%1,          Yong%Xiong%NULL%3,          Zhenshun%Cheng%NULL%4,          Shicheng%Gao%NULL%1,          Ke%Liang%NULL%1,          Mingqi%Luo%NULL%1,          Tielong%Chen%NULL%1,          Shihui%Song%NULL%1,          Zhiyong%Ma%NULL%1,          Xiaoping%Chen%NULL%1,          Ruiying%Zheng%NULL%1,          Qian%Cao%NULL%1,          Fan%Wang%fanndywang@foxmail.com%0,          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,          Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,          Yongzhen%Fan%NULL%2,          Ming%Chen%NULL%2,          Xiaoyan%Wu%NULL%2,          Lin%Zhang%NULL%2,          Tao%He%NULL%2,          Hairong%Wang%NULL%2,          Jing%Wan%NULL%2,          Xinghuan%Wang%NULL%0,          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%4,          Lili%Ren%NULL%3,          Jianping%Zhao%NULL%10,          Yi%Hu%NULL%5,          Li%Zhang%NULL%5,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%3,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%3,          Xuelei%Xie%NULL%3,          Wen%Yin%NULL%3,          Hui%Li%NULL%0,          Min%Liu%NULL%4,          Yan%Xiao%NULL%4,          Hong%Gao%NULL%5,          Li%Guo%NULL%4,          Jungang%Xie%NULL%5,          Guangfa%Wang%NULL%3,          Rongmeng%Jiang%NULL%3,          Zhancheng%Gao%NULL%3,          Qi%Jin%NULL%4,          Jianwei%Wang%wangjw28@163.com%3,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,       Cabrini%Luca%coreGivesNoEmail%2,       Castelli%Antonio%coreGivesNoEmail%2,       Cecconi%Maurizio%coreGivesNoEmail%2,       Cereda%Danilo%coreGivesNoEmail%2,       Coluccello%Antonio%coreGivesNoEmail%2,       Foti%Giuseppe%coreGivesNoEmail%2,       Fumagalli%Roberto%coreGivesNoEmail%2,       Grasselli%Giacomo%coreGivesNoEmail%2,       Iotti%Giorgio%coreGivesNoEmail%2,       Latronico%Nicola%coreGivesNoEmail%2,       Lorini%Luca%coreGivesNoEmail%2,       Merler%Stefano%coreGivesNoEmail%2,       Natalini%Giuseppe%coreGivesNoEmail%2,       Pesenti%Antonio%coreGivesNoEmail%2,       Piatti%Alessandra%coreGivesNoEmail%2,       Ranieri%Marco Vito%coreGivesNoEmail%2,       Scandroglio%Anna Mara%coreGivesNoEmail%2,       Storti%Enrico%coreGivesNoEmail%2,       Zanella%Alberto%coreGivesNoEmail%2,       Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,          Bijan J.%Ghassemieh%NULL%4,          Michelle%Nichols%NULL%4,          Richard%Kim%NULL%4,          Keith R.%Jerome%NULL%4,          Arun K.%Nalla%NULL%4,          Alexander L.%Greninger%NULL%4,          Sudhakar%Pipavath%NULL%4,          Mark M.%Wurfel%NULL%4,          Laura%Evans%NULL%4,          Patricia A.%Kritek%NULL%4,          T. Eoin%West%NULL%4,          Andrew%Luks%NULL%4,          Anthony%Gerbino%NULL%4,          Chris R.%Dale%NULL%4,          Jason D.%Goldman%NULL%4,          Shane%O’Mahony%NULL%4,          Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,   Eric%Yim%xref no email%7,   Lindy%Klaff%xref no email%7,   Sharukh%Lokhandwala%xref no email%7,   Francis X.%Riedo%xref no email%7,   Maria%Chong%xref no email%7,   Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%4,          Xuan%Dong%NULL%1,          Jieming%Qu%NULL%4,          Fengyun%Gong%NULL%1,          Yang%Han%NULL%1,          Yang%Qiu%NULL%1,          Jingli%Wang%NULL%1,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%6,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%1,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,          Wei%Zhao%NULL%1,          Ji%Li%NULL%1,          Weiwei%Shu%shuweiwei361@163.com%1,          Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%0,        Chelico%J.D.%coreGivesNoEmail%0,        Cohen%S.L.%coreGivesNoEmail%0,        Cookingham%J.%coreGivesNoEmail%0,        Coppa%K.%coreGivesNoEmail%0,        Crawford%J.M.%coreGivesNoEmail%0,        Davidson%K.W.%coreGivesNoEmail%0,        Diefenbach%M.A.%coreGivesNoEmail%0,        Dominello%A.J.%coreGivesNoEmail%0,        Duer-Hefele%J.%coreGivesNoEmail%0,        Falzon%L.%coreGivesNoEmail%0,        Gitlin%J.%coreGivesNoEmail%0,        Hajizadeh%N.%coreGivesNoEmail%0,        Harvin%T.G.%coreGivesNoEmail%0,        Hirsch%J.S.%coreGivesNoEmail%0,        Hirschwerk%D.A.%coreGivesNoEmail%0,        Kim%E.J.%coreGivesNoEmail%0,        Kozel%Z.M.%coreGivesNoEmail%0,        Marrast%L.M.%coreGivesNoEmail%0,        McGinn%T.%coreGivesNoEmail%0,        Mogavero%J.N.%coreGivesNoEmail%0,        Narasimhan%M.%coreGivesNoEmail%0,        Osorio%G.A.%coreGivesNoEmail%0,        Qiu%M.%coreGivesNoEmail%0,        Richardson%S.%coreGivesNoEmail%0,        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,           Ying%Chen%NULL%1,           Ruzheng%Lin%NULL%1,           Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,           Yuanyuan%Xing%NULL%2,           Yu%Xiao%NULL%0,           Liping%Deng%NULL%2,           Qiu%Zhao%NULL%2,           Hongling%Wang%NULL%2,           Yong%Xiong%NULL%4,           Zhenshun%Cheng%NULL%6,           Shicheng%Gao%NULL%2,           Ke%Liang%NULL%2,           Mingqi%Luo%NULL%2,           Tielong%Chen%NULL%2,           Shihui%Song%NULL%2,           Zhiyong%Ma%NULL%2,           Xiaoping%Chen%NULL%2,           Ruiying%Zheng%NULL%2,           Qian%Cao%NULL%2,           Fan%Wang%fanndywang@foxmail.com%0,           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,           Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,           Yongzhen%Fan%NULL%2,           Ming%Chen%NULL%2,           Xiaoyan%Wu%NULL%2,           Lin%Zhang%NULL%2,           Tao%He%NULL%2,           Hairong%Wang%NULL%2,           Jing%Wan%NULL%2,           Xinghuan%Wang%NULL%0,           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%5,           Lili%Ren%NULL%4,           Jianping%Zhao%NULL%13,           Yi%Hu%NULL%7,           Li%Zhang%NULL%6,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%4,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%4,           Xuelei%Xie%NULL%4,           Wen%Yin%NULL%4,           Hui%Li%NULL%0,           Min%Liu%NULL%5,           Yan%Xiao%NULL%5,           Hong%Gao%NULL%6,           Li%Guo%NULL%5,           Jungang%Xie%NULL%7,           Guangfa%Wang%NULL%4,           Rongmeng%Jiang%NULL%4,           Zhancheng%Gao%NULL%4,           Qi%Jin%NULL%5,           Jianwei%Wang%wangjw28@163.com%4,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,        Cabrini%Luca%coreGivesNoEmail%2,        Castelli%Antonio%coreGivesNoEmail%2,        Cecconi%Maurizio%coreGivesNoEmail%2,        Cereda%Danilo%coreGivesNoEmail%2,        Coluccello%Antonio%coreGivesNoEmail%2,        Foti%Giuseppe%coreGivesNoEmail%2,        Fumagalli%Roberto%coreGivesNoEmail%2,        Grasselli%Giacomo%coreGivesNoEmail%2,        Iotti%Giorgio%coreGivesNoEmail%2,        Latronico%Nicola%coreGivesNoEmail%2,        Lorini%Luca%coreGivesNoEmail%2,        Merler%Stefano%coreGivesNoEmail%2,        Natalini%Giuseppe%coreGivesNoEmail%2,        Pesenti%Antonio%coreGivesNoEmail%2,        Piatti%Alessandra%coreGivesNoEmail%2,        Ranieri%Marco Vito%coreGivesNoEmail%2,        Scandroglio%Anna Mara%coreGivesNoEmail%2,        Storti%Enrico%coreGivesNoEmail%2,        Zanella%Alberto%coreGivesNoEmail%2,        Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,           Bijan J.%Ghassemieh%NULL%4,           Michelle%Nichols%NULL%4,           Richard%Kim%NULL%4,           Keith R.%Jerome%NULL%4,           Arun K.%Nalla%NULL%4,           Alexander L.%Greninger%NULL%4,           Sudhakar%Pipavath%NULL%4,           Mark M.%Wurfel%NULL%4,           Laura%Evans%NULL%4,           Patricia A.%Kritek%NULL%4,           T. Eoin%West%NULL%4,           Andrew%Luks%NULL%4,           Anthony%Gerbino%NULL%4,           Chris R.%Dale%NULL%4,           Jason D.%Goldman%NULL%4,           Shane%O’Mahony%NULL%4,           Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,    Eric%Yim%xref no email%7,    Lindy%Klaff%xref no email%7,    Sharukh%Lokhandwala%xref no email%7,    Francis X.%Riedo%xref no email%7,    Maria%Chong%xref no email%7,    Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%6,           Xuan%Dong%NULL%1,           Jieming%Qu%NULL%6,           Fengyun%Gong%NULL%1,           Yang%Han%NULL%1,           Yang%Qiu%NULL%1,           Jingli%Wang%NULL%1,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%7,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%1,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,           Wei%Zhao%NULL%1,           Ji%Li%NULL%1,           Weiwei%Shu%shuweiwei361@163.com%1,           Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1125,7 +1215,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1154,7 +1244,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1183,7 +1273,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1212,7 +1302,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1241,7 +1331,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1270,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1299,7 +1389,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1328,7 +1418,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1357,7 +1447,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1386,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1415,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1444,7 +1534,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1473,7 +1563,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1502,7 +1592,7 @@
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="247">
   <si>
     <t>Doi</t>
   </si>
@@ -852,6 +852,120 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,           Wei%Zhao%NULL%1,           Ji%Li%NULL%1,           Weiwei%Shu%shuweiwei361@163.com%1,           Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%0,         Chelico%J.D.%coreGivesNoEmail%0,         Cohen%S.L.%coreGivesNoEmail%0,         Cookingham%J.%coreGivesNoEmail%0,         Coppa%K.%coreGivesNoEmail%0,         Crawford%J.M.%coreGivesNoEmail%0,         Davidson%K.W.%coreGivesNoEmail%0,         Diefenbach%M.A.%coreGivesNoEmail%0,         Dominello%A.J.%coreGivesNoEmail%0,         Duer-Hefele%J.%coreGivesNoEmail%0,         Falzon%L.%coreGivesNoEmail%0,         Gitlin%J.%coreGivesNoEmail%0,         Hajizadeh%N.%coreGivesNoEmail%0,         Harvin%T.G.%coreGivesNoEmail%0,         Hirsch%J.S.%coreGivesNoEmail%0,         Hirschwerk%D.A.%coreGivesNoEmail%0,         Kim%E.J.%coreGivesNoEmail%0,         Kozel%Z.M.%coreGivesNoEmail%0,         Marrast%L.M.%coreGivesNoEmail%0,         McGinn%T.%coreGivesNoEmail%0,         Mogavero%J.N.%coreGivesNoEmail%0,         Narasimhan%M.%coreGivesNoEmail%0,         Osorio%G.A.%coreGivesNoEmail%0,         Qiu%M.%coreGivesNoEmail%0,         Richardson%S.%coreGivesNoEmail%0,         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,            Ying%Chen%NULL%1,            Ruzheng%Lin%NULL%1,            Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,            Yuanyuan%Xing%NULL%1,            Yu%Xiao%NULL%0,            Liping%Deng%NULL%1,            Qiu%Zhao%NULL%1,            Hongling%Wang%NULL%1,            Yong%Xiong%NULL%3,            Zhenshun%Cheng%NULL%4,            Shicheng%Gao%NULL%1,            Ke%Liang%NULL%1,            Mingqi%Luo%NULL%1,            Tielong%Chen%NULL%1,            Shihui%Song%NULL%1,            Zhiyong%Ma%NULL%1,            Xiaoping%Chen%NULL%1,            Ruiying%Zheng%NULL%1,            Qian%Cao%NULL%1,            Fan%Wang%fanndywang@foxmail.com%0,            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,            Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,            Yongzhen%Fan%NULL%2,            Ming%Chen%NULL%2,            Xiaoyan%Wu%NULL%2,            Lin%Zhang%NULL%2,            Tao%He%NULL%2,            Hairong%Wang%NULL%2,            Jing%Wan%NULL%2,            Xinghuan%Wang%NULL%0,            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%4,            Lili%Ren%NULL%3,            Jianping%Zhao%NULL%10,            Yi%Hu%NULL%5,            Li%Zhang%NULL%5,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%3,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%3,            Xuelei%Xie%NULL%3,            Wen%Yin%NULL%3,            Hui%Li%NULL%0,            Min%Liu%NULL%4,            Yan%Xiao%NULL%4,            Hong%Gao%NULL%5,            Li%Guo%NULL%4,            Jungang%Xie%NULL%5,            Guangfa%Wang%NULL%3,            Rongmeng%Jiang%NULL%3,            Zhancheng%Gao%NULL%3,            Qi%Jin%NULL%4,            Jianwei%Wang%wangjw28@163.com%3,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,         Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,         Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,         Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,         Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,         Cabrini%Luca%coreGivesNoEmail%2,         Castelli%Antonio%coreGivesNoEmail%2,         Cecconi%Maurizio%coreGivesNoEmail%2,         Cereda%Danilo%coreGivesNoEmail%2,         Coluccello%Antonio%coreGivesNoEmail%2,         Foti%Giuseppe%coreGivesNoEmail%2,         Fumagalli%Roberto%coreGivesNoEmail%2,         Grasselli%Giacomo%coreGivesNoEmail%2,         Iotti%Giorgio%coreGivesNoEmail%2,         Latronico%Nicola%coreGivesNoEmail%2,         Lorini%Luca%coreGivesNoEmail%2,         Merler%Stefano%coreGivesNoEmail%2,         Natalini%Giuseppe%coreGivesNoEmail%2,         Pesenti%Antonio%coreGivesNoEmail%2,         Piatti%Alessandra%coreGivesNoEmail%2,         Ranieri%Marco Vito%coreGivesNoEmail%2,         Scandroglio%Anna Mara%coreGivesNoEmail%2,         Storti%Enrico%coreGivesNoEmail%2,         Zanella%Alberto%coreGivesNoEmail%2,         Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,            Bijan J.%Ghassemieh%NULL%4,            Michelle%Nichols%NULL%4,            Richard%Kim%NULL%4,            Keith R.%Jerome%NULL%4,            Arun K.%Nalla%NULL%4,            Alexander L.%Greninger%NULL%4,            Sudhakar%Pipavath%NULL%4,            Mark M.%Wurfel%NULL%4,            Laura%Evans%NULL%4,            Patricia A.%Kritek%NULL%4,            T. Eoin%West%NULL%4,            Andrew%Luks%NULL%4,            Anthony%Gerbino%NULL%4,            Chris R.%Dale%NULL%4,            Jason D.%Goldman%NULL%4,            Shane%O’Mahony%NULL%4,            Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,     Eric%Yim%xref no email%7,     Lindy%Klaff%xref no email%7,     Sharukh%Lokhandwala%xref no email%7,     Francis X.%Riedo%xref no email%7,     Maria%Chong%xref no email%7,     Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%4,            Xuan%Dong%NULL%1,            Jieming%Qu%NULL%4,            Fengyun%Gong%NULL%1,            Yang%Han%NULL%1,            Yang%Qiu%NULL%1,            Jingli%Wang%NULL%1,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%6,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%1,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The outbreak of a novel coronavirus (2019-nCoV)-infected pneumonia (NCIP) is currently ongoing in China.
+ Most of the critically ill patients received high-flow nasal cannula (HFNC) oxygen therapy.
+ However, the experience of HFNC in this population is lacking.
+Methods
+We retrospectively screened 318 confirmed patients with NCIP in two hospitals of Chongqing, China, from January 1st to March 4th, 2020. Among them, 27 (8.4%) patients experienced severe acute respiratory failure including 17 patients (63%) treated with HFNC as first-line therapy, 9 patients (33%) treated with noninvasive ventilation (NIV) and one patient (4%) treated with invasive ventilation.
+ HFNC failure was defined by the need of NIV or intubation as rescue therapy.
+Results
+Of the 17 HFNC patients, 7 (41%) experienced HFNC failure.
+ The HFNC failure rate was 0% (0/6) in patients with PaO2/FiO2 &amp;gt; 200 mm Hg vs.
+ 63% (7/11) in those with PaO2/FiO2 ≤ 200 mm Hg (p = 0.04).
+ Compared with baseline data, the respiratory rate significantly decreased after 1–2 h of HFNC in successful group [median 26 (IQR: 25–29) vs.
+ 23 (22–25), p = 0.03].
+ However, it did not in the unsuccessful group.
+ After initiation of NIV as rescue therapy among the 7 patients with HFNC failure, PaO2/FiO2 significantly improved after 1–2 h of NIV [median 172 (150–208) mmHg vs.
+ 114 (IQR: 79–130) under HFNC, p = 0.04].
+ However, two out of seven (29%) patients with NIV as rescue therapy ultimately received intubation.
+ Among the 27 patients with severe acute respiratory failure, four patients were eventually intubated (15%).
+Conclusions
+Our study indicated that HFNC was the most common ventilation support for patients with NCIP.
+ Patients with lower PaO2/FiO2 were more likely to experience HFNC failure.
+</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,            Wei%Zhao%NULL%1,            Ji%Li%NULL%1,            Weiwei%Shu%shuweiwei361@163.com%1,            Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%0,          Chelico%J.D.%coreGivesNoEmail%0,          Cohen%S.L.%coreGivesNoEmail%0,          Cookingham%J.%coreGivesNoEmail%0,          Coppa%K.%coreGivesNoEmail%0,          Crawford%J.M.%coreGivesNoEmail%0,          Davidson%K.W.%coreGivesNoEmail%0,          Diefenbach%M.A.%coreGivesNoEmail%0,          Dominello%A.J.%coreGivesNoEmail%0,          Duer-Hefele%J.%coreGivesNoEmail%0,          Falzon%L.%coreGivesNoEmail%0,          Gitlin%J.%coreGivesNoEmail%0,          Hajizadeh%N.%coreGivesNoEmail%0,          Harvin%T.G.%coreGivesNoEmail%0,          Hirsch%J.S.%coreGivesNoEmail%0,          Hirschwerk%D.A.%coreGivesNoEmail%0,          Kim%E.J.%coreGivesNoEmail%0,          Kozel%Z.M.%coreGivesNoEmail%0,          Marrast%L.M.%coreGivesNoEmail%0,          McGinn%T.%coreGivesNoEmail%0,          Mogavero%J.N.%coreGivesNoEmail%0,          Narasimhan%M.%coreGivesNoEmail%0,          Osorio%G.A.%coreGivesNoEmail%0,          Qiu%M.%coreGivesNoEmail%0,          Richardson%S.%coreGivesNoEmail%0,          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,             Ying%Chen%NULL%1,             Ruzheng%Lin%NULL%1,             Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,             Yuanyuan%Xing%NULL%1,             Yu%Xiao%NULL%0,             Liping%Deng%NULL%1,             Qiu%Zhao%NULL%1,             Hongling%Wang%NULL%1,             Yong%Xiong%NULL%3,             Zhenshun%Cheng%NULL%4,             Shicheng%Gao%NULL%1,             Ke%Liang%NULL%1,             Mingqi%Luo%NULL%1,             Tielong%Chen%NULL%1,             Shihui%Song%NULL%1,             Zhiyong%Ma%NULL%1,             Xiaoping%Chen%NULL%1,             Ruiying%Zheng%NULL%1,             Qian%Cao%NULL%1,             Fan%Wang%fanndywang@foxmail.com%0,             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,             Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,             Yongzhen%Fan%NULL%2,             Ming%Chen%NULL%2,             Xiaoyan%Wu%NULL%2,             Lin%Zhang%NULL%2,             Tao%He%NULL%2,             Hairong%Wang%NULL%2,             Jing%Wan%NULL%2,             Xinghuan%Wang%NULL%0,             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%4,             Lili%Ren%NULL%3,             Jianping%Zhao%NULL%10,             Yi%Hu%NULL%5,             Li%Zhang%NULL%5,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%3,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%3,             Xuelei%Xie%NULL%3,             Wen%Yin%NULL%3,             Hui%Li%NULL%0,             Min%Liu%NULL%4,             Yan%Xiao%NULL%4,             Hong%Gao%NULL%5,             Li%Guo%NULL%4,             Jungang%Xie%NULL%5,             Guangfa%Wang%NULL%3,             Rongmeng%Jiang%NULL%3,             Zhancheng%Gao%NULL%3,             Qi%Jin%NULL%4,             Jianwei%Wang%wangjw28@163.com%3,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,          Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,          Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,          Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,          Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,          Cabrini%Luca%coreGivesNoEmail%2,          Castelli%Antonio%coreGivesNoEmail%2,          Cecconi%Maurizio%coreGivesNoEmail%2,          Cereda%Danilo%coreGivesNoEmail%2,          Coluccello%Antonio%coreGivesNoEmail%2,          Foti%Giuseppe%coreGivesNoEmail%2,          Fumagalli%Roberto%coreGivesNoEmail%2,          Grasselli%Giacomo%coreGivesNoEmail%2,          Iotti%Giorgio%coreGivesNoEmail%2,          Latronico%Nicola%coreGivesNoEmail%2,          Lorini%Luca%coreGivesNoEmail%2,          Merler%Stefano%coreGivesNoEmail%2,          Natalini%Giuseppe%coreGivesNoEmail%2,          Pesenti%Antonio%coreGivesNoEmail%2,          Piatti%Alessandra%coreGivesNoEmail%2,          Ranieri%Marco Vito%coreGivesNoEmail%2,          Scandroglio%Anna Mara%coreGivesNoEmail%2,          Storti%Enrico%coreGivesNoEmail%2,          Zanella%Alberto%coreGivesNoEmail%2,          Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,             Bijan J.%Ghassemieh%NULL%4,             Michelle%Nichols%NULL%4,             Richard%Kim%NULL%4,             Keith R.%Jerome%NULL%4,             Arun K.%Nalla%NULL%4,             Alexander L.%Greninger%NULL%4,             Sudhakar%Pipavath%NULL%4,             Mark M.%Wurfel%NULL%4,             Laura%Evans%NULL%4,             Patricia A.%Kritek%NULL%4,             T. Eoin%West%NULL%4,             Andrew%Luks%NULL%4,             Anthony%Gerbino%NULL%4,             Chris R.%Dale%NULL%4,             Jason D.%Goldman%NULL%4,             Shane%O’Mahony%NULL%4,             Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,      Eric%Yim%xref no email%7,      Lindy%Klaff%xref no email%7,      Sharukh%Lokhandwala%xref no email%7,      Francis X.%Riedo%xref no email%7,      Maria%Chong%xref no email%7,      Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%4,             Xuan%Dong%NULL%1,             Jieming%Qu%NULL%4,             Fengyun%Gong%NULL%1,             Yang%Han%NULL%1,             Yang%Qiu%NULL%1,             Jingli%Wang%NULL%1,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%6,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%1,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,             Wei%Zhao%NULL%1,             Ji%Li%NULL%1,             Weiwei%Shu%shuweiwei361@163.com%1,             Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1300,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1215,7 +1329,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1244,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1273,7 +1387,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1302,7 +1416,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1331,7 +1445,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1360,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1389,7 +1503,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1418,7 +1532,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1447,7 +1561,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1476,7 +1590,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1505,7 +1619,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1534,7 +1648,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1563,7 +1677,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1589,10 +1703,10 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="262">
   <si>
     <t>Doi</t>
   </si>
@@ -966,6 +966,51 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,             Wei%Zhao%NULL%1,             Ji%Li%NULL%1,             Weiwei%Shu%shuweiwei361@163.com%1,             Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%0,           Chelico%J.D.%coreGivesNoEmail%0,           Cohen%S.L.%coreGivesNoEmail%0,           Cookingham%J.%coreGivesNoEmail%0,           Coppa%K.%coreGivesNoEmail%0,           Crawford%J.M.%coreGivesNoEmail%0,           Davidson%K.W.%coreGivesNoEmail%0,           Diefenbach%M.A.%coreGivesNoEmail%0,           Dominello%A.J.%coreGivesNoEmail%0,           Duer-Hefele%J.%coreGivesNoEmail%0,           Falzon%L.%coreGivesNoEmail%0,           Gitlin%J.%coreGivesNoEmail%0,           Hajizadeh%N.%coreGivesNoEmail%0,           Harvin%T.G.%coreGivesNoEmail%0,           Hirsch%J.S.%coreGivesNoEmail%0,           Hirschwerk%D.A.%coreGivesNoEmail%0,           Kim%E.J.%coreGivesNoEmail%0,           Kozel%Z.M.%coreGivesNoEmail%0,           Marrast%L.M.%coreGivesNoEmail%0,           McGinn%T.%coreGivesNoEmail%0,           Mogavero%J.N.%coreGivesNoEmail%0,           Narasimhan%M.%coreGivesNoEmail%0,           Osorio%G.A.%coreGivesNoEmail%0,           Qiu%M.%coreGivesNoEmail%0,           Richardson%S.%coreGivesNoEmail%0,           Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,              Ying%Chen%NULL%1,              Ruzheng%Lin%NULL%1,              Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,              Yuanyuan%Xing%NULL%1,              Yu%Xiao%NULL%0,              Liping%Deng%NULL%1,              Qiu%Zhao%NULL%1,              Hongling%Wang%NULL%1,              Yong%Xiong%NULL%3,              Zhenshun%Cheng%NULL%4,              Shicheng%Gao%NULL%1,              Ke%Liang%NULL%1,              Mingqi%Luo%NULL%1,              Tielong%Chen%NULL%1,              Shihui%Song%NULL%1,              Zhiyong%Ma%NULL%1,              Xiaoping%Chen%NULL%1,              Ruiying%Zheng%NULL%1,              Qian%Cao%NULL%1,              Fan%Wang%fanndywang@foxmail.com%0,              Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,              Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,              Yongzhen%Fan%NULL%2,              Ming%Chen%NULL%2,              Xiaoyan%Wu%NULL%2,              Lin%Zhang%NULL%2,              Tao%He%NULL%2,              Hairong%Wang%NULL%2,              Jing%Wan%NULL%2,              Xinghuan%Wang%NULL%0,              Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%4,              Lili%Ren%NULL%3,              Jianping%Zhao%NULL%10,              Yi%Hu%NULL%5,              Li%Zhang%NULL%5,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%3,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%3,              Xuelei%Xie%NULL%3,              Wen%Yin%NULL%3,              Hui%Li%NULL%0,              Min%Liu%NULL%4,              Yan%Xiao%NULL%4,              Hong%Gao%NULL%5,              Li%Guo%NULL%4,              Jungang%Xie%NULL%5,              Guangfa%Wang%NULL%3,              Rongmeng%Jiang%NULL%3,              Zhancheng%Gao%NULL%3,              Qi%Jin%NULL%4,              Jianwei%Wang%wangjw28@163.com%3,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,           Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,           Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,           Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,           Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,           Cabrini%Luca%coreGivesNoEmail%2,           Castelli%Antonio%coreGivesNoEmail%2,           Cecconi%Maurizio%coreGivesNoEmail%2,           Cereda%Danilo%coreGivesNoEmail%2,           Coluccello%Antonio%coreGivesNoEmail%2,           Foti%Giuseppe%coreGivesNoEmail%2,           Fumagalli%Roberto%coreGivesNoEmail%2,           Grasselli%Giacomo%coreGivesNoEmail%2,           Iotti%Giorgio%coreGivesNoEmail%2,           Latronico%Nicola%coreGivesNoEmail%2,           Lorini%Luca%coreGivesNoEmail%2,           Merler%Stefano%coreGivesNoEmail%2,           Natalini%Giuseppe%coreGivesNoEmail%2,           Pesenti%Antonio%coreGivesNoEmail%2,           Piatti%Alessandra%coreGivesNoEmail%2,           Ranieri%Marco Vito%coreGivesNoEmail%2,           Scandroglio%Anna Mara%coreGivesNoEmail%2,           Storti%Enrico%coreGivesNoEmail%2,           Zanella%Alberto%coreGivesNoEmail%2,           Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,              Bijan J.%Ghassemieh%NULL%4,              Michelle%Nichols%NULL%4,              Richard%Kim%NULL%4,              Keith R.%Jerome%NULL%4,              Arun K.%Nalla%NULL%4,              Alexander L.%Greninger%NULL%4,              Sudhakar%Pipavath%NULL%4,              Mark M.%Wurfel%NULL%4,              Laura%Evans%NULL%4,              Patricia A.%Kritek%NULL%4,              T. Eoin%West%NULL%4,              Andrew%Luks%NULL%4,              Anthony%Gerbino%NULL%4,              Chris R.%Dale%NULL%4,              Jason D.%Goldman%NULL%4,              Shane%O’Mahony%NULL%4,              Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,       Eric%Yim%xref no email%7,       Lindy%Klaff%xref no email%7,       Sharukh%Lokhandwala%xref no email%7,       Francis X.%Riedo%xref no email%7,       Maria%Chong%xref no email%7,       Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%4,              Xuan%Dong%NULL%1,              Jieming%Qu%NULL%4,              Fengyun%Gong%NULL%1,              Yang%Han%NULL%1,              Yang%Qiu%NULL%1,              Jingli%Wang%NULL%1,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%6,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%1,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,              Wei%Zhao%NULL%1,              Ji%Li%NULL%1,              Weiwei%Shu%shuweiwei361@163.com%1,              Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1345,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1329,7 +1374,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1358,7 +1403,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1387,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1416,7 +1461,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1445,7 +1490,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1474,7 +1519,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1503,7 +1548,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1532,7 +1577,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1561,7 +1606,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1590,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1619,7 +1664,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1648,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1677,7 +1722,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1706,7 +1751,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="277">
   <si>
     <t>Doi</t>
   </si>
@@ -1011,6 +1011,51 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,              Wei%Zhao%NULL%1,              Ji%Li%NULL%1,              Weiwei%Shu%shuweiwei361@163.com%1,              Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,            Becker%L.B.%coreGivesNoEmail%0,            Chelico%J.D.%coreGivesNoEmail%0,            Cohen%S.L.%coreGivesNoEmail%0,            Cookingham%J.%coreGivesNoEmail%0,            Coppa%K.%coreGivesNoEmail%0,            Crawford%J.M.%coreGivesNoEmail%0,            Davidson%K.W.%coreGivesNoEmail%0,            Diefenbach%M.A.%coreGivesNoEmail%0,            Dominello%A.J.%coreGivesNoEmail%0,            Duer-Hefele%J.%coreGivesNoEmail%0,            Falzon%L.%coreGivesNoEmail%0,            Gitlin%J.%coreGivesNoEmail%0,            Hajizadeh%N.%coreGivesNoEmail%0,            Harvin%T.G.%coreGivesNoEmail%0,            Hirsch%J.S.%coreGivesNoEmail%0,            Hirschwerk%D.A.%coreGivesNoEmail%0,            Kim%E.J.%coreGivesNoEmail%0,            Kozel%Z.M.%coreGivesNoEmail%0,            Marrast%L.M.%coreGivesNoEmail%0,            McGinn%T.%coreGivesNoEmail%0,            Mogavero%J.N.%coreGivesNoEmail%0,            Narasimhan%M.%coreGivesNoEmail%0,            Osorio%G.A.%coreGivesNoEmail%0,            Qiu%M.%coreGivesNoEmail%0,            Richardson%S.%coreGivesNoEmail%0,            Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,               Ying%Chen%NULL%1,               Ruzheng%Lin%NULL%1,               Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,               Yuanyuan%Xing%NULL%1,               Yu%Xiao%NULL%0,               Liping%Deng%NULL%1,               Qiu%Zhao%NULL%1,               Hongling%Wang%NULL%1,               Yong%Xiong%NULL%3,               Zhenshun%Cheng%NULL%4,               Shicheng%Gao%NULL%1,               Ke%Liang%NULL%1,               Mingqi%Luo%NULL%1,               Tielong%Chen%NULL%1,               Shihui%Song%NULL%1,               Zhiyong%Ma%NULL%1,               Xiaoping%Chen%NULL%1,               Ruiying%Zheng%NULL%1,               Qian%Cao%NULL%1,               Fan%Wang%fanndywang@foxmail.com%0,               Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,               Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,               Yongzhen%Fan%NULL%2,               Ming%Chen%NULL%2,               Xiaoyan%Wu%NULL%2,               Lin%Zhang%NULL%2,               Tao%He%NULL%2,               Hairong%Wang%NULL%2,               Jing%Wan%NULL%2,               Xinghuan%Wang%NULL%0,               Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%4,               Lili%Ren%NULL%3,               Jianping%Zhao%NULL%10,               Yi%Hu%NULL%5,               Li%Zhang%NULL%5,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%3,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%3,               Xuelei%Xie%NULL%3,               Wen%Yin%NULL%3,               Hui%Li%NULL%0,               Min%Liu%NULL%4,               Yan%Xiao%NULL%4,               Hong%Gao%NULL%5,               Li%Guo%NULL%4,               Jungang%Xie%NULL%5,               Guangfa%Wang%NULL%3,               Rongmeng%Jiang%NULL%3,               Zhancheng%Gao%NULL%3,               Qi%Jin%NULL%4,               Jianwei%Wang%wangjw28@163.com%3,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,            Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,            Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,            Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,            Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,            Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,            Cabrini%Luca%coreGivesNoEmail%2,            Castelli%Antonio%coreGivesNoEmail%2,            Cecconi%Maurizio%coreGivesNoEmail%2,            Cereda%Danilo%coreGivesNoEmail%2,            Coluccello%Antonio%coreGivesNoEmail%2,            Foti%Giuseppe%coreGivesNoEmail%2,            Fumagalli%Roberto%coreGivesNoEmail%2,            Grasselli%Giacomo%coreGivesNoEmail%2,            Iotti%Giorgio%coreGivesNoEmail%2,            Latronico%Nicola%coreGivesNoEmail%2,            Lorini%Luca%coreGivesNoEmail%2,            Merler%Stefano%coreGivesNoEmail%2,            Natalini%Giuseppe%coreGivesNoEmail%2,            Pesenti%Antonio%coreGivesNoEmail%2,            Piatti%Alessandra%coreGivesNoEmail%2,            Ranieri%Marco Vito%coreGivesNoEmail%2,            Scandroglio%Anna Mara%coreGivesNoEmail%2,            Storti%Enrico%coreGivesNoEmail%2,            Zanella%Alberto%coreGivesNoEmail%2,            Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,               Bijan J.%Ghassemieh%NULL%4,               Michelle%Nichols%NULL%4,               Richard%Kim%NULL%4,               Keith R.%Jerome%NULL%4,               Arun K.%Nalla%NULL%4,               Alexander L.%Greninger%NULL%4,               Sudhakar%Pipavath%NULL%4,               Mark M.%Wurfel%NULL%4,               Laura%Evans%NULL%4,               Patricia A.%Kritek%NULL%4,               T. Eoin%West%NULL%4,               Andrew%Luks%NULL%4,               Anthony%Gerbino%NULL%4,               Chris R.%Dale%NULL%4,               Jason D.%Goldman%NULL%4,               Shane%O’Mahony%NULL%4,               Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,        Eric%Yim%xref no email%7,        Lindy%Klaff%xref no email%7,        Sharukh%Lokhandwala%xref no email%7,        Francis X.%Riedo%xref no email%7,        Maria%Chong%xref no email%7,        Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,        Xiaoyan%Chen%xref no email%0,        Yanping%Cai%xref no email%0,        Jia\u2019an%Xia%xref no email%0,        Xing%Zhou%xref no email%0,        Sha%Xu%xref no email%0,        Hanping%Huang%xref no email%0,        Li%Zhang%xref no email%0,        Xia%Zhou%xref no email%0,        Chunling%Du%xref no email%0,        Yuye%Zhang%xref no email%0,        Juan%Song%xref no email%0,        Sijiao%Wang%xref no email%0,        Yencheng%Chao%xref no email%0,        Zeyong%Yang%xref no email%0,        Jie%Xu%xref no email%0,        Xin%Zhou%xref no email%0,        Dechang%Chen%xref no email%0,        Weining%Xiong%xref no email%0,        Lei%Xu%xref no email%0,        Feng%Zhou%xref no email%0,        Jinjun%Jiang%xref no email%0,        Chunxue%Bai%xref no email%0,        Junhua%Zheng%xref no email%0,        Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%4,               Xuan%Dong%NULL%1,               Jieming%Qu%NULL%4,               Fengyun%Gong%NULL%1,               Yang%Han%NULL%1,               Yang%Qiu%NULL%1,               Jingli%Wang%NULL%1,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%6,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%1,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,               Wei%Zhao%NULL%1,               Ji%Li%NULL%1,               Weiwei%Shu%shuweiwei361@163.com%1,               Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1390,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1374,7 +1419,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1403,7 +1448,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1432,7 +1477,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1461,7 +1506,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1490,7 +1535,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1519,7 +1564,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1548,7 +1593,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1577,7 +1622,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1606,7 +1651,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1635,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1664,7 +1709,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1693,7 +1738,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1722,7 +1767,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1751,7 +1796,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="307">
   <si>
     <t>Doi</t>
   </si>
@@ -1056,6 +1056,96 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,               Wei%Zhao%NULL%1,               Ji%Li%NULL%1,               Weiwei%Shu%shuweiwei361@163.com%1,               Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,             Becker%L.B.%coreGivesNoEmail%0,             Chelico%J.D.%coreGivesNoEmail%0,             Cohen%S.L.%coreGivesNoEmail%0,             Cookingham%J.%coreGivesNoEmail%0,             Coppa%K.%coreGivesNoEmail%0,             Crawford%J.M.%coreGivesNoEmail%0,             Davidson%K.W.%coreGivesNoEmail%0,             Diefenbach%M.A.%coreGivesNoEmail%0,             Dominello%A.J.%coreGivesNoEmail%0,             Duer-Hefele%J.%coreGivesNoEmail%0,             Falzon%L.%coreGivesNoEmail%0,             Gitlin%J.%coreGivesNoEmail%0,             Hajizadeh%N.%coreGivesNoEmail%0,             Harvin%T.G.%coreGivesNoEmail%0,             Hirsch%J.S.%coreGivesNoEmail%0,             Hirschwerk%D.A.%coreGivesNoEmail%0,             Kim%E.J.%coreGivesNoEmail%0,             Kozel%Z.M.%coreGivesNoEmail%0,             Marrast%L.M.%coreGivesNoEmail%0,             McGinn%T.%coreGivesNoEmail%0,             Mogavero%J.N.%coreGivesNoEmail%0,             Narasimhan%M.%coreGivesNoEmail%0,             Osorio%G.A.%coreGivesNoEmail%0,             Qiu%M.%coreGivesNoEmail%0,             Richardson%S.%coreGivesNoEmail%0,             Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%1,                Ying%Chen%NULL%1,                Ruzheng%Lin%NULL%1,                Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%4,                Yuanyuan%Xing%NULL%1,                Yu%Xiao%NULL%0,                Liping%Deng%NULL%1,                Qiu%Zhao%NULL%1,                Hongling%Wang%NULL%1,                Yong%Xiong%NULL%3,                Zhenshun%Cheng%NULL%4,                Shicheng%Gao%NULL%1,                Ke%Liang%NULL%1,                Mingqi%Luo%NULL%1,                Tielong%Chen%NULL%1,                Shihui%Song%NULL%1,                Zhiyong%Ma%NULL%1,                Xiaoping%Chen%NULL%1,                Ruiying%Zheng%NULL%1,                Qian%Cao%NULL%1,                Fan%Wang%fanndywang@foxmail.com%0,                Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                Yongzhen%Fan%NULL%2,                Ming%Chen%NULL%2,                Xiaoyan%Wu%NULL%2,                Lin%Zhang%NULL%2,                Tao%He%NULL%2,                Hairong%Wang%NULL%2,                Jing%Wan%NULL%2,                Xinghuan%Wang%NULL%0,                Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%4,                Lili%Ren%NULL%3,                Jianping%Zhao%NULL%10,                Yi%Hu%NULL%5,                Li%Zhang%NULL%5,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%3,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%3,                Xuelei%Xie%NULL%3,                Wen%Yin%NULL%3,                Hui%Li%NULL%0,                Min%Liu%NULL%4,                Yan%Xiao%NULL%4,                Hong%Gao%NULL%5,                Li%Guo%NULL%4,                Jungang%Xie%NULL%5,                Guangfa%Wang%NULL%3,                Rongmeng%Jiang%NULL%3,                Zhancheng%Gao%NULL%3,                Qi%Jin%NULL%4,                Jianwei%Wang%wangjw28@163.com%3,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,             Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,             Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,             Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,             Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,             Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,             Cabrini%Luca%coreGivesNoEmail%2,             Castelli%Antonio%coreGivesNoEmail%2,             Cecconi%Maurizio%coreGivesNoEmail%2,             Cereda%Danilo%coreGivesNoEmail%2,             Coluccello%Antonio%coreGivesNoEmail%2,             Foti%Giuseppe%coreGivesNoEmail%2,             Fumagalli%Roberto%coreGivesNoEmail%2,             Grasselli%Giacomo%coreGivesNoEmail%2,             Iotti%Giorgio%coreGivesNoEmail%2,             Latronico%Nicola%coreGivesNoEmail%2,             Lorini%Luca%coreGivesNoEmail%2,             Merler%Stefano%coreGivesNoEmail%2,             Natalini%Giuseppe%coreGivesNoEmail%2,             Pesenti%Antonio%coreGivesNoEmail%2,             Piatti%Alessandra%coreGivesNoEmail%2,             Ranieri%Marco Vito%coreGivesNoEmail%2,             Scandroglio%Anna Mara%coreGivesNoEmail%2,             Storti%Enrico%coreGivesNoEmail%2,             Zanella%Alberto%coreGivesNoEmail%2,             Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                Bijan J.%Ghassemieh%NULL%4,                Michelle%Nichols%NULL%4,                Richard%Kim%NULL%4,                Keith R.%Jerome%NULL%4,                Arun K.%Nalla%NULL%4,                Alexander L.%Greninger%NULL%4,                Sudhakar%Pipavath%NULL%4,                Mark M.%Wurfel%NULL%4,                Laura%Evans%NULL%4,                Patricia A.%Kritek%NULL%4,                T. Eoin%West%NULL%4,                Andrew%Luks%NULL%4,                Anthony%Gerbino%NULL%4,                Chris R.%Dale%NULL%4,                Jason D.%Goldman%NULL%4,                Shane%O’Mahony%NULL%4,                Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,         Eric%Yim%xref no email%7,         Lindy%Klaff%xref no email%7,         Sharukh%Lokhandwala%xref no email%7,         Francis X.%Riedo%xref no email%7,         Maria%Chong%xref no email%7,         Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%0,         Yanping%Cai%xref no email%0,         Jia\u2019an%Xia%xref no email%0,         Xing%Zhou%xref no email%0,         Sha%Xu%xref no email%0,         Hanping%Huang%xref no email%0,         Li%Zhang%xref no email%0,         Xia%Zhou%xref no email%0,         Chunling%Du%xref no email%0,         Yuye%Zhang%xref no email%0,         Juan%Song%xref no email%0,         Sijiao%Wang%xref no email%0,         Yencheng%Chao%xref no email%0,         Zeyong%Yang%xref no email%0,         Jie%Xu%xref no email%0,         Xin%Zhou%xref no email%0,         Dechang%Chen%xref no email%0,         Weining%Xiong%xref no email%0,         Lei%Xu%xref no email%0,         Feng%Zhou%xref no email%0,         Jinjun%Jiang%xref no email%0,         Chunxue%Bai%xref no email%0,         Junhua%Zheng%xref no email%0,         Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%4,                Xuan%Dong%NULL%1,                Jieming%Qu%NULL%4,                Fengyun%Gong%NULL%1,                Yang%Han%NULL%1,                Yang%Qiu%NULL%1,                Jingli%Wang%NULL%1,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%6,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%1,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                Wei%Zhao%NULL%1,                Ji%Li%NULL%1,                Weiwei%Shu%shuweiwei361@163.com%1,                Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,              Becker%L.B.%coreGivesNoEmail%0,              Chelico%J.D.%coreGivesNoEmail%0,              Cohen%S.L.%coreGivesNoEmail%0,              Cookingham%J.%coreGivesNoEmail%0,              Coppa%K.%coreGivesNoEmail%0,              Crawford%J.M.%coreGivesNoEmail%0,              Davidson%K.W.%coreGivesNoEmail%0,              Diefenbach%M.A.%coreGivesNoEmail%0,              Dominello%A.J.%coreGivesNoEmail%0,              Duer-Hefele%J.%coreGivesNoEmail%0,              Falzon%L.%coreGivesNoEmail%0,              Gitlin%J.%coreGivesNoEmail%0,              Hajizadeh%N.%coreGivesNoEmail%0,              Harvin%T.G.%coreGivesNoEmail%0,              Hirsch%J.S.%coreGivesNoEmail%0,              Hirschwerk%D.A.%coreGivesNoEmail%0,              Kim%E.J.%coreGivesNoEmail%0,              Kozel%Z.M.%coreGivesNoEmail%0,              Marrast%L.M.%coreGivesNoEmail%0,              McGinn%T.%coreGivesNoEmail%0,              Mogavero%J.N.%coreGivesNoEmail%0,              Narasimhan%M.%coreGivesNoEmail%0,              Osorio%G.A.%coreGivesNoEmail%0,              Qiu%M.%coreGivesNoEmail%0,              Richardson%S.%coreGivesNoEmail%0,              Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%1,                 Ying%Chen%NULL%1,                 Ruzheng%Lin%NULL%1,                 Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%4,                 Yuanyuan%Xing%NULL%1,                 Yu%Xiao%NULL%0,                 Liping%Deng%NULL%1,                 Qiu%Zhao%NULL%1,                 Hongling%Wang%NULL%1,                 Yong%Xiong%NULL%3,                 Zhenshun%Cheng%NULL%4,                 Shicheng%Gao%NULL%1,                 Ke%Liang%NULL%1,                 Mingqi%Luo%NULL%1,                 Tielong%Chen%NULL%1,                 Shihui%Song%NULL%1,                 Zhiyong%Ma%NULL%1,                 Xiaoping%Chen%NULL%1,                 Ruiying%Zheng%NULL%1,                 Qian%Cao%NULL%1,                 Fan%Wang%fanndywang@foxmail.com%0,                 Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                 Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                 Yongzhen%Fan%NULL%2,                 Ming%Chen%NULL%2,                 Xiaoyan%Wu%NULL%2,                 Lin%Zhang%NULL%2,                 Tao%He%NULL%2,                 Hairong%Wang%NULL%2,                 Jing%Wan%NULL%2,                 Xinghuan%Wang%NULL%0,                 Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%4,                 Lili%Ren%NULL%3,                 Jianping%Zhao%NULL%10,                 Yi%Hu%NULL%5,                 Li%Zhang%NULL%5,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%3,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%3,                 Xuelei%Xie%NULL%3,                 Wen%Yin%NULL%3,                 Hui%Li%NULL%0,                 Min%Liu%NULL%4,                 Yan%Xiao%NULL%4,                 Hong%Gao%NULL%5,                 Li%Guo%NULL%4,                 Jungang%Xie%NULL%5,                 Guangfa%Wang%NULL%3,                 Rongmeng%Jiang%NULL%3,                 Zhancheng%Gao%NULL%3,                 Qi%Jin%NULL%4,                 Jianwei%Wang%wangjw28@163.com%3,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,              Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,              Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,              Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,              Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,              Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,              Cabrini%Luca%coreGivesNoEmail%2,              Castelli%Antonio%coreGivesNoEmail%2,              Cecconi%Maurizio%coreGivesNoEmail%2,              Cereda%Danilo%coreGivesNoEmail%2,              Coluccello%Antonio%coreGivesNoEmail%2,              Foti%Giuseppe%coreGivesNoEmail%2,              Fumagalli%Roberto%coreGivesNoEmail%2,              Grasselli%Giacomo%coreGivesNoEmail%2,              Iotti%Giorgio%coreGivesNoEmail%2,              Latronico%Nicola%coreGivesNoEmail%2,              Lorini%Luca%coreGivesNoEmail%2,              Merler%Stefano%coreGivesNoEmail%2,              Natalini%Giuseppe%coreGivesNoEmail%2,              Pesenti%Antonio%coreGivesNoEmail%2,              Piatti%Alessandra%coreGivesNoEmail%2,              Ranieri%Marco Vito%coreGivesNoEmail%2,              Scandroglio%Anna Mara%coreGivesNoEmail%2,              Storti%Enrico%coreGivesNoEmail%2,              Zanella%Alberto%coreGivesNoEmail%2,              Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                 Bijan J.%Ghassemieh%NULL%4,                 Michelle%Nichols%NULL%4,                 Richard%Kim%NULL%4,                 Keith R.%Jerome%NULL%4,                 Arun K.%Nalla%NULL%4,                 Alexander L.%Greninger%NULL%4,                 Sudhakar%Pipavath%NULL%4,                 Mark M.%Wurfel%NULL%4,                 Laura%Evans%NULL%4,                 Patricia A.%Kritek%NULL%4,                 T. Eoin%West%NULL%4,                 Andrew%Luks%NULL%4,                 Anthony%Gerbino%NULL%4,                 Chris R.%Dale%NULL%4,                 Jason D.%Goldman%NULL%4,                 Shane%O’Mahony%NULL%4,                 Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,          Eric%Yim%xref no email%7,          Lindy%Klaff%xref no email%7,          Sharukh%Lokhandwala%xref no email%7,          Francis X.%Riedo%xref no email%7,          Maria%Chong%xref no email%7,          Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%0,          Yanping%Cai%xref no email%0,          Jia\u2019an%Xia%xref no email%0,          Xing%Zhou%xref no email%0,          Sha%Xu%xref no email%0,          Hanping%Huang%xref no email%0,          Li%Zhang%xref no email%0,          Xia%Zhou%xref no email%0,          Chunling%Du%xref no email%0,          Yuye%Zhang%xref no email%0,          Juan%Song%xref no email%0,          Sijiao%Wang%xref no email%0,          Yencheng%Chao%xref no email%0,          Zeyong%Yang%xref no email%0,          Jie%Xu%xref no email%0,          Xin%Zhou%xref no email%0,          Dechang%Chen%xref no email%0,          Weining%Xiong%xref no email%0,          Lei%Xu%xref no email%0,          Feng%Zhou%xref no email%0,          Jinjun%Jiang%xref no email%0,          Chunxue%Bai%xref no email%0,          Junhua%Zheng%xref no email%0,          Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%4,                 Xuan%Dong%NULL%1,                 Jieming%Qu%NULL%4,                 Fengyun%Gong%NULL%1,                 Yang%Han%NULL%1,                 Yang%Qiu%NULL%1,                 Jingli%Wang%NULL%1,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%6,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%1,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                 Wei%Zhao%NULL%1,                 Ji%Li%NULL%1,                 Weiwei%Shu%shuweiwei361@163.com%1,                 Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1480,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1419,7 +1509,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1448,7 +1538,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1477,7 +1567,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1506,7 +1596,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1535,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1564,7 +1654,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1593,7 +1683,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1622,7 +1712,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1651,7 +1741,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1680,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1709,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1738,7 +1828,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1767,7 +1857,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1796,7 +1886,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="322">
   <si>
     <t>Doi</t>
   </si>
@@ -1146,6 +1146,51 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,                 Wei%Zhao%NULL%1,                 Ji%Li%NULL%1,                 Weiwei%Shu%shuweiwei361@163.com%1,                 Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,               Becker%L.B.%coreGivesNoEmail%0,               Chelico%J.D.%coreGivesNoEmail%0,               Cohen%S.L.%coreGivesNoEmail%0,               Cookingham%J.%coreGivesNoEmail%0,               Coppa%K.%coreGivesNoEmail%0,               Crawford%J.M.%coreGivesNoEmail%0,               Davidson%K.W.%coreGivesNoEmail%0,               Diefenbach%M.A.%coreGivesNoEmail%0,               Dominello%A.J.%coreGivesNoEmail%0,               Duer-Hefele%J.%coreGivesNoEmail%0,               Falzon%L.%coreGivesNoEmail%0,               Gitlin%J.%coreGivesNoEmail%0,               Hajizadeh%N.%coreGivesNoEmail%0,               Harvin%T.G.%coreGivesNoEmail%0,               Hirsch%J.S.%coreGivesNoEmail%0,               Hirschwerk%D.A.%coreGivesNoEmail%0,               Kim%E.J.%coreGivesNoEmail%0,               Kozel%Z.M.%coreGivesNoEmail%0,               Marrast%L.M.%coreGivesNoEmail%0,               McGinn%T.%coreGivesNoEmail%0,               Mogavero%J.N.%coreGivesNoEmail%0,               Narasimhan%M.%coreGivesNoEmail%0,               Osorio%G.A.%coreGivesNoEmail%0,               Qiu%M.%coreGivesNoEmail%0,               Richardson%S.%coreGivesNoEmail%0,               Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%2,                  Ying%Chen%NULL%1,                  Ruzheng%Lin%NULL%1,                  Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%5,                  Yuanyuan%Xing%NULL%1,                  Yu%Xiao%NULL%0,                  Liping%Deng%NULL%1,                  Qiu%Zhao%NULL%1,                  Hongling%Wang%NULL%1,                  Yong%Xiong%NULL%3,                  Zhenshun%Cheng%NULL%4,                  Shicheng%Gao%NULL%1,                  Ke%Liang%NULL%1,                  Mingqi%Luo%NULL%1,                  Tielong%Chen%NULL%1,                  Shihui%Song%NULL%1,                  Zhiyong%Ma%NULL%1,                  Xiaoping%Chen%NULL%1,                  Ruiying%Zheng%NULL%1,                  Qian%Cao%NULL%1,                  Fan%Wang%fanndywang@foxmail.com%0,                  Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                  Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                  Yongzhen%Fan%NULL%2,                  Ming%Chen%NULL%2,                  Xiaoyan%Wu%NULL%2,                  Lin%Zhang%NULL%2,                  Tao%He%NULL%2,                  Hairong%Wang%NULL%2,                  Jing%Wan%NULL%2,                  Xinghuan%Wang%NULL%0,                  Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%4,                  Lili%Ren%NULL%3,                  Jianping%Zhao%NULL%10,                  Yi%Hu%NULL%5,                  Li%Zhang%NULL%5,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%3,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%3,                  Xuelei%Xie%NULL%3,                  Wen%Yin%NULL%3,                  Hui%Li%NULL%0,                  Min%Liu%NULL%4,                  Yan%Xiao%NULL%4,                  Hong%Gao%NULL%5,                  Li%Guo%NULL%4,                  Jungang%Xie%NULL%5,                  Guangfa%Wang%NULL%3,                  Rongmeng%Jiang%NULL%3,                  Zhancheng%Gao%NULL%3,                  Qi%Jin%NULL%4,                  Jianwei%Wang%wangjw28@163.com%3,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,               Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,               Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,               Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,               Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,               Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,               Cabrini%Luca%coreGivesNoEmail%2,               Castelli%Antonio%coreGivesNoEmail%2,               Cecconi%Maurizio%coreGivesNoEmail%2,               Cereda%Danilo%coreGivesNoEmail%2,               Coluccello%Antonio%coreGivesNoEmail%2,               Foti%Giuseppe%coreGivesNoEmail%2,               Fumagalli%Roberto%coreGivesNoEmail%2,               Grasselli%Giacomo%coreGivesNoEmail%2,               Iotti%Giorgio%coreGivesNoEmail%2,               Latronico%Nicola%coreGivesNoEmail%2,               Lorini%Luca%coreGivesNoEmail%2,               Merler%Stefano%coreGivesNoEmail%2,               Natalini%Giuseppe%coreGivesNoEmail%2,               Pesenti%Antonio%coreGivesNoEmail%2,               Piatti%Alessandra%coreGivesNoEmail%2,               Ranieri%Marco Vito%coreGivesNoEmail%2,               Scandroglio%Anna Mara%coreGivesNoEmail%2,               Storti%Enrico%coreGivesNoEmail%2,               Zanella%Alberto%coreGivesNoEmail%2,               Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                  Bijan J.%Ghassemieh%NULL%4,                  Michelle%Nichols%NULL%4,                  Richard%Kim%NULL%4,                  Keith R.%Jerome%NULL%4,                  Arun K.%Nalla%NULL%4,                  Alexander L.%Greninger%NULL%4,                  Sudhakar%Pipavath%NULL%4,                  Mark M.%Wurfel%NULL%4,                  Laura%Evans%NULL%4,                  Patricia A.%Kritek%NULL%4,                  T. Eoin%West%NULL%4,                  Andrew%Luks%NULL%4,                  Anthony%Gerbino%NULL%4,                  Chris R.%Dale%NULL%4,                  Jason D.%Goldman%NULL%4,                  Shane%O’Mahony%NULL%4,                  Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,           Eric%Yim%xref no email%7,           Lindy%Klaff%xref no email%7,           Sharukh%Lokhandwala%xref no email%7,           Francis X.%Riedo%xref no email%7,           Maria%Chong%xref no email%7,           Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%0,           Yanping%Cai%xref no email%0,           Jia\u2019an%Xia%xref no email%0,           Xing%Zhou%xref no email%0,           Sha%Xu%xref no email%0,           Hanping%Huang%xref no email%0,           Li%Zhang%xref no email%0,           Xia%Zhou%xref no email%0,           Chunling%Du%xref no email%0,           Yuye%Zhang%xref no email%0,           Juan%Song%xref no email%0,           Sijiao%Wang%xref no email%0,           Yencheng%Chao%xref no email%0,           Zeyong%Yang%xref no email%0,           Jie%Xu%xref no email%0,           Xin%Zhou%xref no email%0,           Dechang%Chen%xref no email%0,           Weining%Xiong%xref no email%0,           Lei%Xu%xref no email%0,           Feng%Zhou%xref no email%0,           Jinjun%Jiang%xref no email%0,           Chunxue%Bai%xref no email%0,           Junhua%Zheng%xref no email%0,           Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%4,                  Xuan%Dong%NULL%1,                  Jieming%Qu%NULL%4,                  Fengyun%Gong%NULL%1,                  Yang%Han%NULL%1,                  Yang%Qiu%NULL%1,                  Jingli%Wang%NULL%1,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%6,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%1,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                  Wei%Zhao%NULL%1,                  Ji%Li%NULL%1,                  Weiwei%Shu%shuweiwei361@163.com%1,                  Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1525,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1509,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1538,7 +1583,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1567,7 +1612,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1596,7 +1641,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1625,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1654,7 +1699,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1683,7 +1728,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1712,7 +1757,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1741,7 +1786,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1770,7 +1815,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1799,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1828,7 +1873,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1857,7 +1902,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1886,7 +1931,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="341">
   <si>
     <t>Doi</t>
   </si>
@@ -1191,6 +1191,63 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,                  Wei%Zhao%NULL%1,                  Ji%Li%NULL%1,                  Weiwei%Shu%shuweiwei361@163.com%1,                  Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                Becker%L.B.%coreGivesNoEmail%0,                Chelico%J.D.%coreGivesNoEmail%0,                Cohen%S.L.%coreGivesNoEmail%0,                Cookingham%J.%coreGivesNoEmail%0,                Coppa%K.%coreGivesNoEmail%0,                Crawford%J.M.%coreGivesNoEmail%0,                Davidson%K.W.%coreGivesNoEmail%0,                Diefenbach%M.A.%coreGivesNoEmail%0,                Dominello%A.J.%coreGivesNoEmail%0,                Duer-Hefele%J.%coreGivesNoEmail%0,                Falzon%L.%coreGivesNoEmail%0,                Gitlin%J.%coreGivesNoEmail%0,                Hajizadeh%N.%coreGivesNoEmail%0,                Harvin%T.G.%coreGivesNoEmail%0,                Hirsch%J.S.%coreGivesNoEmail%0,                Hirschwerk%D.A.%coreGivesNoEmail%0,                Kim%E.J.%coreGivesNoEmail%0,                Kozel%Z.M.%coreGivesNoEmail%0,                Marrast%L.M.%coreGivesNoEmail%0,                McGinn%T.%coreGivesNoEmail%0,                Mogavero%J.N.%coreGivesNoEmail%0,                Narasimhan%M.%coreGivesNoEmail%0,                Osorio%G.A.%coreGivesNoEmail%0,                Qiu%M.%coreGivesNoEmail%0,                Richardson%S.%coreGivesNoEmail%0,                Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                   Ying%Chen%NULL%1,                   Ruzheng%Lin%NULL%1,                   Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                   Yuanyuan%Xing%NULL%1,                   Yu%Xiao%NULL%0,                   Liping%Deng%NULL%1,                   Qiu%Zhao%NULL%1,                   Hongling%Wang%NULL%1,                   Yong%Xiong%NULL%3,                   Zhenshun%Cheng%NULL%4,                   Shicheng%Gao%NULL%1,                   Ke%Liang%NULL%1,                   Mingqi%Luo%NULL%1,                   Tielong%Chen%NULL%1,                   Shihui%Song%NULL%1,                   Zhiyong%Ma%NULL%1,                   Xiaoping%Chen%NULL%1,                   Ruiying%Zheng%NULL%1,                   Qian%Cao%NULL%1,                   Fan%Wang%fanndywang@foxmail.com%0,                   Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                   Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                   Yongzhen%Fan%NULL%2,                   Ming%Chen%NULL%2,                   Xiaoyan%Wu%NULL%2,                   Lin%Zhang%NULL%2,                   Tao%He%NULL%2,                   Hairong%Wang%NULL%2,                   Jing%Wan%NULL%2,                   Xinghuan%Wang%NULL%0,                   Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%9,                   Xingwang%Li%NULL%4,                   Lili%Ren%NULL%3,                   Jianping%Zhao%NULL%10,                   Yi%Hu%NULL%5,                   Li%Zhang%NULL%5,                   Guohui%Fan%NULL%9,                   Jiuyang%Xu%NULL%9,                   Xiaoying%Gu%NULL%9,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%15,                   Jiaan%Xia%NULL%3,                   Yuan%Wei%NULL%10,                   Wenjuan%Wu%NULL%3,                   Xuelei%Xie%NULL%3,                   Wen%Yin%NULL%3,                   Hui%Li%NULL%0,                   Min%Liu%NULL%4,                   Yan%Xiao%NULL%4,                   Hong%Gao%NULL%5,                   Li%Guo%NULL%4,                   Jungang%Xie%NULL%5,                   Guangfa%Wang%NULL%3,                   Rongmeng%Jiang%NULL%3,                   Zhancheng%Gao%NULL%3,                   Qi%Jin%NULL%4,                   Jianwei%Wang%wangjw28@163.com%3,                   Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                Cabrini%Luca%coreGivesNoEmail%2,                Castelli%Antonio%coreGivesNoEmail%2,                Cecconi%Maurizio%coreGivesNoEmail%2,                Cereda%Danilo%coreGivesNoEmail%2,                Coluccello%Antonio%coreGivesNoEmail%2,                Foti%Giuseppe%coreGivesNoEmail%2,                Fumagalli%Roberto%coreGivesNoEmail%2,                Grasselli%Giacomo%coreGivesNoEmail%2,                Iotti%Giorgio%coreGivesNoEmail%2,                Latronico%Nicola%coreGivesNoEmail%2,                Lorini%Luca%coreGivesNoEmail%2,                Merler%Stefano%coreGivesNoEmail%2,                Natalini%Giuseppe%coreGivesNoEmail%2,                Pesenti%Antonio%coreGivesNoEmail%2,                Piatti%Alessandra%coreGivesNoEmail%2,                Ranieri%Marco Vito%coreGivesNoEmail%2,                Scandroglio%Anna Mara%coreGivesNoEmail%2,                Storti%Enrico%coreGivesNoEmail%2,                Zanella%Alberto%coreGivesNoEmail%2,                Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                   Bijan J.%Ghassemieh%NULL%4,                   Michelle%Nichols%NULL%4,                   Richard%Kim%NULL%4,                   Keith R.%Jerome%NULL%4,                   Arun K.%Nalla%NULL%4,                   Alexander L.%Greninger%NULL%4,                   Sudhakar%Pipavath%NULL%4,                   Mark M.%Wurfel%NULL%4,                   Laura%Evans%NULL%4,                   Patricia A.%Kritek%NULL%4,                   T. Eoin%West%NULL%4,                   Andrew%Luks%NULL%4,                   Anthony%Gerbino%NULL%4,                   Chris R.%Dale%NULL%4,                   Jason D.%Goldman%NULL%4,                   Shane%O’Mahony%NULL%4,                   Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,            Eric%Yim%xref no email%7,            Lindy%Klaff%xref no email%7,            Sharukh%Lokhandwala%xref no email%7,            Francis X.%Riedo%xref no email%7,            Maria%Chong%xref no email%7,            Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%0,            Yanping%Cai%xref no email%0,            Jia\u2019an%Xia%xref no email%0,            Xing%Zhou%xref no email%0,            Sha%Xu%xref no email%0,            Hanping%Huang%xref no email%0,            Li%Zhang%xref no email%0,            Xia%Zhou%xref no email%0,            Chunling%Du%xref no email%0,            Yuye%Zhang%xref no email%0,            Juan%Song%xref no email%0,            Sijiao%Wang%xref no email%0,            Yencheng%Chao%xref no email%0,            Zeyong%Yang%xref no email%0,            Jie%Xu%xref no email%0,            Xin%Zhou%xref no email%0,            Dechang%Chen%xref no email%0,            Weining%Xiong%xref no email%0,            Lei%Xu%xref no email%0,            Feng%Zhou%xref no email%0,            Jinjun%Jiang%xref no email%0,            Chunxue%Bai%xref no email%0,            Junhua%Zheng%xref no email%0,            Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%4,                   Xuan%Dong%NULL%1,                   Jieming%Qu%NULL%4,                   Fengyun%Gong%NULL%1,                   Yang%Han%NULL%1,                   Yang%Qiu%NULL%1,                   Jingli%Wang%NULL%1,                   Ying%Liu%NULL%8,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%6,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%1,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%6,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%6,                   Jie%Xiang%NULL%9,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%6,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%6,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%6,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%6,                   Yi%Zhang%NULL%7,                   Hua%Chen%NULL%6,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                   Wei%Zhao%NULL%1,                   Ji%Li%NULL%1,                   Weiwei%Shu%shuweiwei361@163.com%1,                   Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1582,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1537,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
@@ -1554,7 +1611,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1566,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
@@ -1583,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1595,7 +1652,7 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
@@ -1612,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1624,7 +1681,7 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
@@ -1641,7 +1698,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1653,7 +1710,7 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7">
@@ -1670,7 +1727,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1682,7 +1739,7 @@
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
@@ -1699,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1711,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
@@ -1728,7 +1785,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1740,7 +1797,7 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
@@ -1757,7 +1814,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1769,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
@@ -1786,7 +1843,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1798,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12">
@@ -1815,7 +1872,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1827,7 +1884,7 @@
         <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13">
@@ -1844,7 +1901,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1856,7 +1913,7 @@
         <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14">
@@ -1873,7 +1930,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1885,7 +1942,7 @@
         <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15">
@@ -1902,7 +1959,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1914,7 +1971,7 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16">
@@ -1931,7 +1988,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
@@ -1943,7 +2000,7 @@
         <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="356">
   <si>
     <t>Doi</t>
   </si>
@@ -1248,6 +1248,51 @@
   </si>
   <si>
     <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                 Becker%L.B.%coreGivesNoEmail%0,                 Chelico%J.D.%coreGivesNoEmail%0,                 Cohen%S.L.%coreGivesNoEmail%0,                 Cookingham%J.%coreGivesNoEmail%0,                 Coppa%K.%coreGivesNoEmail%0,                 Crawford%J.M.%coreGivesNoEmail%0,                 Davidson%K.W.%coreGivesNoEmail%0,                 Diefenbach%M.A.%coreGivesNoEmail%0,                 Dominello%A.J.%coreGivesNoEmail%0,                 Duer-Hefele%J.%coreGivesNoEmail%0,                 Falzon%L.%coreGivesNoEmail%0,                 Gitlin%J.%coreGivesNoEmail%0,                 Hajizadeh%N.%coreGivesNoEmail%0,                 Harvin%T.G.%coreGivesNoEmail%0,                 Hirsch%J.S.%coreGivesNoEmail%0,                 Hirschwerk%D.A.%coreGivesNoEmail%0,                 Kim%E.J.%coreGivesNoEmail%0,                 Kozel%Z.M.%coreGivesNoEmail%0,                 Marrast%L.M.%coreGivesNoEmail%0,                 McGinn%T.%coreGivesNoEmail%0,                 Mogavero%J.N.%coreGivesNoEmail%0,                 Narasimhan%M.%coreGivesNoEmail%0,                 Osorio%G.A.%coreGivesNoEmail%0,                 Qiu%M.%coreGivesNoEmail%0,                 Richardson%S.%coreGivesNoEmail%0,                 Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                    Ying%Chen%NULL%1,                    Ruzheng%Lin%NULL%1,                    Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                    Yuanyuan%Xing%NULL%1,                    Yu%Xiao%NULL%0,                    Liping%Deng%NULL%1,                    Qiu%Zhao%NULL%1,                    Hongling%Wang%NULL%1,                    Yong%Xiong%NULL%3,                    Zhenshun%Cheng%NULL%4,                    Shicheng%Gao%NULL%1,                    Ke%Liang%NULL%1,                    Mingqi%Luo%NULL%1,                    Tielong%Chen%NULL%1,                    Shihui%Song%NULL%1,                    Zhiyong%Ma%NULL%1,                    Xiaoping%Chen%NULL%1,                    Ruiying%Zheng%NULL%1,                    Qian%Cao%NULL%1,                    Fan%Wang%fanndywang@foxmail.com%0,                    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                    Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                    Yongzhen%Fan%NULL%2,                    Ming%Chen%NULL%2,                    Xiaoyan%Wu%NULL%2,                    Lin%Zhang%NULL%2,                    Tao%He%NULL%2,                    Hairong%Wang%NULL%2,                    Jing%Wan%NULL%2,                    Xinghuan%Wang%NULL%0,                    Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%9,                    Xingwang%Li%NULL%4,                    Lili%Ren%NULL%3,                    Jianping%Zhao%NULL%10,                    Yi%Hu%NULL%5,                    Li%Zhang%NULL%5,                    Guohui%Fan%NULL%9,                    Jiuyang%Xu%NULL%9,                    Xiaoying%Gu%NULL%9,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%15,                    Jiaan%Xia%NULL%3,                    Yuan%Wei%NULL%10,                    Wenjuan%Wu%NULL%3,                    Xuelei%Xie%NULL%3,                    Wen%Yin%NULL%3,                    Hui%Li%NULL%0,                    Min%Liu%NULL%4,                    Yan%Xiao%NULL%4,                    Hong%Gao%NULL%5,                    Li%Guo%NULL%4,                    Jungang%Xie%NULL%5,                    Guangfa%Wang%NULL%3,                    Rongmeng%Jiang%NULL%3,                    Zhancheng%Gao%NULL%3,                    Qi%Jin%NULL%4,                    Jianwei%Wang%wangjw28@163.com%3,                    Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                 Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                 Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                 Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                 Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                 Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                 Cabrini%Luca%coreGivesNoEmail%2,                 Castelli%Antonio%coreGivesNoEmail%2,                 Cecconi%Maurizio%coreGivesNoEmail%2,                 Cereda%Danilo%coreGivesNoEmail%2,                 Coluccello%Antonio%coreGivesNoEmail%2,                 Foti%Giuseppe%coreGivesNoEmail%2,                 Fumagalli%Roberto%coreGivesNoEmail%2,                 Grasselli%Giacomo%coreGivesNoEmail%2,                 Iotti%Giorgio%coreGivesNoEmail%2,                 Latronico%Nicola%coreGivesNoEmail%2,                 Lorini%Luca%coreGivesNoEmail%2,                 Merler%Stefano%coreGivesNoEmail%2,                 Natalini%Giuseppe%coreGivesNoEmail%2,                 Pesenti%Antonio%coreGivesNoEmail%2,                 Piatti%Alessandra%coreGivesNoEmail%2,                 Ranieri%Marco Vito%coreGivesNoEmail%2,                 Scandroglio%Anna Mara%coreGivesNoEmail%2,                 Storti%Enrico%coreGivesNoEmail%2,                 Zanella%Alberto%coreGivesNoEmail%2,                 Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                    Bijan J.%Ghassemieh%NULL%4,                    Michelle%Nichols%NULL%4,                    Richard%Kim%NULL%4,                    Keith R.%Jerome%NULL%4,                    Arun K.%Nalla%NULL%4,                    Alexander L.%Greninger%NULL%4,                    Sudhakar%Pipavath%NULL%4,                    Mark M.%Wurfel%NULL%4,                    Laura%Evans%NULL%4,                    Patricia A.%Kritek%NULL%4,                    T. Eoin%West%NULL%4,                    Andrew%Luks%NULL%4,                    Anthony%Gerbino%NULL%4,                    Chris R.%Dale%NULL%4,                    Jason D.%Goldman%NULL%4,                    Shane%O’Mahony%NULL%4,                    Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%7,             Eric%Yim%xref no email%7,             Lindy%Klaff%xref no email%7,             Sharukh%Lokhandwala%xref no email%7,             Francis X.%Riedo%xref no email%7,             Maria%Chong%xref no email%7,             Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%0,             Yanping%Cai%xref no email%0,             Jia\u2019an%Xia%xref no email%0,             Xing%Zhou%xref no email%0,             Sha%Xu%xref no email%0,             Hanping%Huang%xref no email%0,             Li%Zhang%xref no email%0,             Xia%Zhou%xref no email%0,             Chunling%Du%xref no email%0,             Yuye%Zhang%xref no email%0,             Juan%Song%xref no email%0,             Sijiao%Wang%xref no email%0,             Yencheng%Chao%xref no email%0,             Zeyong%Yang%xref no email%0,             Jie%Xu%xref no email%0,             Xin%Zhou%xref no email%0,             Dechang%Chen%xref no email%0,             Weining%Xiong%xref no email%0,             Lei%Xu%xref no email%0,             Feng%Zhou%xref no email%0,             Jinjun%Jiang%xref no email%0,             Chunxue%Bai%xref no email%0,             Junhua%Zheng%xref no email%0,             Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%4,                    Xuan%Dong%NULL%1,                    Jieming%Qu%NULL%4,                    Fengyun%Gong%NULL%1,                    Yang%Han%NULL%1,                    Yang%Qiu%NULL%1,                    Jingli%Wang%NULL%1,                    Ying%Liu%NULL%8,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%6,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%1,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%6,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%6,                    Jie%Xiang%NULL%9,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%6,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%6,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%6,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%6,                    Yi%Zhang%NULL%7,                    Hua%Chen%NULL%6,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                    Wei%Zhao%NULL%1,                    Ji%Li%NULL%1,                    Weiwei%Shu%shuweiwei361@163.com%1,                    Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1627,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1611,7 +1656,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1640,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1669,7 +1714,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1698,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1727,7 +1772,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1756,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1785,7 +1830,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1814,7 +1859,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1843,7 +1888,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1872,7 +1917,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1901,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1930,7 +1975,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1959,7 +2004,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1988,7 +2033,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="425">
   <si>
     <t>Doi</t>
   </si>
@@ -1293,6 +1293,213 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,                    Wei%Zhao%NULL%1,                    Ji%Li%NULL%1,                    Weiwei%Shu%shuweiwei361@163.com%1,                    Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                  Becker%L.B.%coreGivesNoEmail%0,                  Chelico%J.D.%coreGivesNoEmail%0,                  Cohen%S.L.%coreGivesNoEmail%0,                  Cookingham%J.%coreGivesNoEmail%0,                  Coppa%K.%coreGivesNoEmail%0,                  Crawford%J.M.%coreGivesNoEmail%0,                  Davidson%K.W.%coreGivesNoEmail%0,                  Diefenbach%M.A.%coreGivesNoEmail%0,                  Dominello%A.J.%coreGivesNoEmail%0,                  Duer-Hefele%J.%coreGivesNoEmail%0,                  Falzon%L.%coreGivesNoEmail%0,                  Gitlin%J.%coreGivesNoEmail%0,                  Hajizadeh%N.%coreGivesNoEmail%0,                  Harvin%T.G.%coreGivesNoEmail%0,                  Hirsch%J.S.%coreGivesNoEmail%0,                  Hirschwerk%D.A.%coreGivesNoEmail%0,                  Kim%E.J.%coreGivesNoEmail%0,                  Kozel%Z.M.%coreGivesNoEmail%0,                  Marrast%L.M.%coreGivesNoEmail%0,                  McGinn%T.%coreGivesNoEmail%0,                  Mogavero%J.N.%coreGivesNoEmail%0,                  Narasimhan%M.%coreGivesNoEmail%0,                  Osorio%G.A.%coreGivesNoEmail%0,                  Qiu%M.%coreGivesNoEmail%0,                  Richardson%S.%coreGivesNoEmail%0,                  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                     Ying%Chen%NULL%1,                     Ruzheng%Lin%NULL%1,                     Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                     Yuanyuan%Xing%NULL%1,                     Yu%Xiao%NULL%0,                     Liping%Deng%NULL%1,                     Qiu%Zhao%NULL%1,                     Hongling%Wang%NULL%1,                     Yong%Xiong%NULL%3,                     Zhenshun%Cheng%NULL%4,                     Shicheng%Gao%NULL%1,                     Ke%Liang%NULL%1,                     Mingqi%Luo%NULL%1,                     Tielong%Chen%NULL%1,                     Shihui%Song%NULL%1,                     Zhiyong%Ma%NULL%1,                     Xiaoping%Chen%NULL%1,                     Ruiying%Zheng%NULL%1,                     Qian%Cao%NULL%1,                     Fan%Wang%fanndywang@foxmail.com%0,                     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                     Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                     Yongzhen%Fan%NULL%2,                     Ming%Chen%NULL%2,                     Xiaoyan%Wu%NULL%2,                     Lin%Zhang%NULL%2,                     Tao%He%NULL%2,                     Hairong%Wang%NULL%2,                     Jing%Wan%NULL%2,                     Xinghuan%Wang%NULL%0,                     Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%9,                     Xingwang%Li%NULL%4,                     Lili%Ren%NULL%3,                     Jianping%Zhao%NULL%10,                     Yi%Hu%NULL%5,                     Li%Zhang%NULL%5,                     Guohui%Fan%NULL%9,                     Jiuyang%Xu%NULL%9,                     Xiaoying%Gu%NULL%9,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%15,                     Jiaan%Xia%NULL%3,                     Yuan%Wei%NULL%10,                     Wenjuan%Wu%NULL%3,                     Xuelei%Xie%NULL%3,                     Wen%Yin%NULL%3,                     Hui%Li%NULL%0,                     Min%Liu%NULL%4,                     Yan%Xiao%NULL%4,                     Hong%Gao%NULL%5,                     Li%Guo%NULL%4,                     Jungang%Xie%NULL%5,                     Guangfa%Wang%NULL%3,                     Rongmeng%Jiang%NULL%3,                     Zhancheng%Gao%NULL%3,                     Qi%Jin%NULL%4,                     Jianwei%Wang%wangjw28@163.com%3,                     Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                  Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                  Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                  Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                  Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                  Cabrini%Luca%coreGivesNoEmail%2,                  Castelli%Antonio%coreGivesNoEmail%2,                  Cecconi%Maurizio%coreGivesNoEmail%2,                  Cereda%Danilo%coreGivesNoEmail%2,                  Coluccello%Antonio%coreGivesNoEmail%2,                  Foti%Giuseppe%coreGivesNoEmail%2,                  Fumagalli%Roberto%coreGivesNoEmail%2,                  Grasselli%Giacomo%coreGivesNoEmail%2,                  Iotti%Giorgio%coreGivesNoEmail%2,                  Latronico%Nicola%coreGivesNoEmail%2,                  Lorini%Luca%coreGivesNoEmail%2,                  Merler%Stefano%coreGivesNoEmail%2,                  Natalini%Giuseppe%coreGivesNoEmail%2,                  Pesenti%Antonio%coreGivesNoEmail%2,                  Piatti%Alessandra%coreGivesNoEmail%2,                  Ranieri%Marco Vito%coreGivesNoEmail%2,                  Scandroglio%Anna Mara%coreGivesNoEmail%2,                  Storti%Enrico%coreGivesNoEmail%2,                  Zanella%Alberto%coreGivesNoEmail%2,                  Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                     Bijan J.%Ghassemieh%NULL%4,                     Michelle%Nichols%NULL%4,                     Richard%Kim%NULL%4,                     Keith R.%Jerome%NULL%4,                     Arun K.%Nalla%NULL%4,                     Alexander L.%Greninger%NULL%4,                     Sudhakar%Pipavath%NULL%4,                     Mark M.%Wurfel%NULL%4,                     Laura%Evans%NULL%4,                     Patricia A.%Kritek%NULL%4,                     T. Eoin%West%NULL%4,                     Andrew%Luks%NULL%4,                     Anthony%Gerbino%NULL%4,                     Chris R.%Dale%NULL%4,                     Jason D.%Goldman%NULL%4,                     Shane%O’Mahony%NULL%4,                     Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%7, Lindy%Klaff%xref no email%7, Sharukh%Lokhandwala%xref no email%7, Francis X.%Riedo%xref no email%7, Maria%Chong%xref no email%7, Melissa%Lee%xref no email%7]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%4,                     Xuan%Dong%NULL%1,                     Jieming%Qu%NULL%4,                     Fengyun%Gong%NULL%1,                     Yang%Han%NULL%1,                     Yang%Qiu%NULL%1,                     Jingli%Wang%NULL%1,                     Ying%Liu%NULL%8,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%6,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%1,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%6,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%6,                     Jie%Xiang%NULL%9,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%6,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%6,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%6,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%6,                     Yi%Zhang%NULL%7,                     Hua%Chen%NULL%6,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                     Wei%Zhao%NULL%1,                     Ji%Li%NULL%1,                     Weiwei%Shu%shuweiwei361@163.com%1,                     Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                   Becker%L.B.%coreGivesNoEmail%0,                   Chelico%J.D.%coreGivesNoEmail%0,                   Cohen%S.L.%coreGivesNoEmail%0,                   Cookingham%J.%coreGivesNoEmail%0,                   Coppa%K.%coreGivesNoEmail%0,                   Crawford%J.M.%coreGivesNoEmail%0,                   Davidson%K.W.%coreGivesNoEmail%0,                   Diefenbach%M.A.%coreGivesNoEmail%0,                   Dominello%A.J.%coreGivesNoEmail%0,                   Duer-Hefele%J.%coreGivesNoEmail%0,                   Falzon%L.%coreGivesNoEmail%0,                   Gitlin%J.%coreGivesNoEmail%0,                   Hajizadeh%N.%coreGivesNoEmail%0,                   Harvin%T.G.%coreGivesNoEmail%0,                   Hirsch%J.S.%coreGivesNoEmail%0,                   Hirschwerk%D.A.%coreGivesNoEmail%0,                   Kim%E.J.%coreGivesNoEmail%0,                   Kozel%Z.M.%coreGivesNoEmail%0,                   Marrast%L.M.%coreGivesNoEmail%0,                   McGinn%T.%coreGivesNoEmail%0,                   Mogavero%J.N.%coreGivesNoEmail%0,                   Narasimhan%M.%coreGivesNoEmail%0,                   Osorio%G.A.%coreGivesNoEmail%0,                   Qiu%M.%coreGivesNoEmail%0,                   Richardson%S.%coreGivesNoEmail%0,                   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                      Ying%Chen%NULL%1,                      Ruzheng%Lin%NULL%1,                      Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                      Yuanyuan%Xing%NULL%1,                      Yu%Xiao%NULL%0,                      Liping%Deng%NULL%1,                      Qiu%Zhao%NULL%1,                      Hongling%Wang%NULL%1,                      Yong%Xiong%NULL%3,                      Zhenshun%Cheng%NULL%4,                      Shicheng%Gao%NULL%1,                      Ke%Liang%NULL%1,                      Mingqi%Luo%NULL%1,                      Tielong%Chen%NULL%1,                      Shihui%Song%NULL%1,                      Zhiyong%Ma%NULL%1,                      Xiaoping%Chen%NULL%1,                      Ruiying%Zheng%NULL%1,                      Qian%Cao%NULL%1,                      Fan%Wang%fanndywang@foxmail.com%0,                      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                      Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                      Yongzhen%Fan%NULL%2,                      Ming%Chen%NULL%2,                      Xiaoyan%Wu%NULL%2,                      Lin%Zhang%NULL%2,                      Tao%He%NULL%2,                      Hairong%Wang%NULL%2,                      Jing%Wan%NULL%2,                      Xinghuan%Wang%NULL%0,                      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%9,                      Xingwang%Li%NULL%4,                      Lili%Ren%NULL%3,                      Jianping%Zhao%NULL%10,                      Yi%Hu%NULL%5,                      Li%Zhang%NULL%5,                      Guohui%Fan%NULL%9,                      Jiuyang%Xu%NULL%9,                      Xiaoying%Gu%NULL%9,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%15,                      Jiaan%Xia%NULL%3,                      Yuan%Wei%NULL%10,                      Wenjuan%Wu%NULL%3,                      Xuelei%Xie%NULL%3,                      Wen%Yin%NULL%3,                      Hui%Li%NULL%0,                      Min%Liu%NULL%4,                      Yan%Xiao%NULL%4,                      Hong%Gao%NULL%5,                      Li%Guo%NULL%4,                      Jungang%Xie%NULL%5,                      Guangfa%Wang%NULL%3,                      Rongmeng%Jiang%NULL%3,                      Zhancheng%Gao%NULL%3,                      Qi%Jin%NULL%4,                      Jianwei%Wang%wangjw28@163.com%3,                      Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                   Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                   Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                   Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                   Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                   Cabrini%Luca%coreGivesNoEmail%2,                   Castelli%Antonio%coreGivesNoEmail%2,                   Cecconi%Maurizio%coreGivesNoEmail%2,                   Cereda%Danilo%coreGivesNoEmail%2,                   Coluccello%Antonio%coreGivesNoEmail%2,                   Foti%Giuseppe%coreGivesNoEmail%2,                   Fumagalli%Roberto%coreGivesNoEmail%2,                   Grasselli%Giacomo%coreGivesNoEmail%2,                   Iotti%Giorgio%coreGivesNoEmail%2,                   Latronico%Nicola%coreGivesNoEmail%2,                   Lorini%Luca%coreGivesNoEmail%2,                   Merler%Stefano%coreGivesNoEmail%2,                   Natalini%Giuseppe%coreGivesNoEmail%2,                   Pesenti%Antonio%coreGivesNoEmail%2,                   Piatti%Alessandra%coreGivesNoEmail%2,                   Ranieri%Marco Vito%coreGivesNoEmail%2,                   Scandroglio%Anna Mara%coreGivesNoEmail%2,                   Storti%Enrico%coreGivesNoEmail%2,                   Zanella%Alberto%coreGivesNoEmail%2,                   Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                      Bijan J.%Ghassemieh%NULL%4,                      Michelle%Nichols%NULL%4,                      Richard%Kim%NULL%4,                      Keith R.%Jerome%NULL%4,                      Arun K.%Nalla%NULL%4,                      Alexander L.%Greninger%NULL%4,                      Sudhakar%Pipavath%NULL%4,                      Mark M.%Wurfel%NULL%4,                      Laura%Evans%NULL%4,                      Patricia A.%Kritek%NULL%4,                      T. Eoin%West%NULL%4,                      Andrew%Luks%NULL%4,                      Anthony%Gerbino%NULL%4,                      Chris R.%Dale%NULL%4,                      Jason D.%Goldman%NULL%4,                      Shane%O’Mahony%NULL%4,                      Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%4,                      Xuan%Dong%NULL%1,                      Jieming%Qu%NULL%4,                      Fengyun%Gong%NULL%1,                      Yang%Han%NULL%1,                      Yang%Qiu%NULL%1,                      Jingli%Wang%NULL%1,                      Ying%Liu%NULL%8,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%6,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%1,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%6,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%6,                      Jie%Xiang%NULL%9,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%6,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%6,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%6,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%6,                      Yi%Zhang%NULL%7,                      Hua%Chen%NULL%6,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                      Wei%Zhao%NULL%1,                      Ji%Li%NULL%1,                      Weiwei%Shu%shuweiwei361@163.com%1,                      Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                    Becker%L.B.%coreGivesNoEmail%0,                    Chelico%J.D.%coreGivesNoEmail%0,                    Cohen%S.L.%coreGivesNoEmail%0,                    Cookingham%J.%coreGivesNoEmail%0,                    Coppa%K.%coreGivesNoEmail%0,                    Crawford%J.M.%coreGivesNoEmail%0,                    Davidson%K.W.%coreGivesNoEmail%0,                    Diefenbach%M.A.%coreGivesNoEmail%0,                    Dominello%A.J.%coreGivesNoEmail%0,                    Duer-Hefele%J.%coreGivesNoEmail%0,                    Falzon%L.%coreGivesNoEmail%0,                    Gitlin%J.%coreGivesNoEmail%0,                    Hajizadeh%N.%coreGivesNoEmail%0,                    Harvin%T.G.%coreGivesNoEmail%0,                    Hirsch%J.S.%coreGivesNoEmail%0,                    Hirschwerk%D.A.%coreGivesNoEmail%0,                    Kim%E.J.%coreGivesNoEmail%0,                    Kozel%Z.M.%coreGivesNoEmail%0,                    Marrast%L.M.%coreGivesNoEmail%0,                    McGinn%T.%coreGivesNoEmail%0,                    Mogavero%J.N.%coreGivesNoEmail%0,                    Narasimhan%M.%coreGivesNoEmail%0,                    Osorio%G.A.%coreGivesNoEmail%0,                    Qiu%M.%coreGivesNoEmail%0,                    Richardson%S.%coreGivesNoEmail%0,                    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                       Ying%Chen%NULL%1,                       Ruzheng%Lin%NULL%1,                       Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                       Yuanyuan%Xing%NULL%1,                       Yu%Xiao%NULL%0,                       Liping%Deng%NULL%1,                       Qiu%Zhao%NULL%1,                       Hongling%Wang%NULL%1,                       Yong%Xiong%NULL%3,                       Zhenshun%Cheng%NULL%4,                       Shicheng%Gao%NULL%1,                       Ke%Liang%NULL%1,                       Mingqi%Luo%NULL%1,                       Tielong%Chen%NULL%1,                       Shihui%Song%NULL%1,                       Zhiyong%Ma%NULL%1,                       Xiaoping%Chen%NULL%1,                       Ruiying%Zheng%NULL%1,                       Qian%Cao%NULL%1,                       Fan%Wang%fanndywang@foxmail.com%0,                       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                       Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                       Yongzhen%Fan%NULL%2,                       Ming%Chen%NULL%2,                       Xiaoyan%Wu%NULL%2,                       Lin%Zhang%NULL%2,                       Tao%He%NULL%2,                       Hairong%Wang%NULL%2,                       Jing%Wan%NULL%2,                       Xinghuan%Wang%NULL%0,                       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%9,                       Xingwang%Li%NULL%4,                       Lili%Ren%NULL%3,                       Jianping%Zhao%NULL%10,                       Yi%Hu%NULL%5,                       Li%Zhang%NULL%5,                       Guohui%Fan%NULL%9,                       Jiuyang%Xu%NULL%9,                       Xiaoying%Gu%NULL%9,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%15,                       Jiaan%Xia%NULL%3,                       Yuan%Wei%NULL%10,                       Wenjuan%Wu%NULL%3,                       Xuelei%Xie%NULL%3,                       Wen%Yin%NULL%3,                       Hui%Li%NULL%0,                       Min%Liu%NULL%4,                       Yan%Xiao%NULL%4,                       Hong%Gao%NULL%5,                       Li%Guo%NULL%4,                       Jungang%Xie%NULL%5,                       Guangfa%Wang%NULL%3,                       Rongmeng%Jiang%NULL%3,                       Zhancheng%Gao%NULL%3,                       Qi%Jin%NULL%4,                       Jianwei%Wang%wangjw28@163.com%3,                       Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                    Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                    Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                    Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                    Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                    Cabrini%Luca%coreGivesNoEmail%2,                    Castelli%Antonio%coreGivesNoEmail%2,                    Cecconi%Maurizio%coreGivesNoEmail%2,                    Cereda%Danilo%coreGivesNoEmail%2,                    Coluccello%Antonio%coreGivesNoEmail%2,                    Foti%Giuseppe%coreGivesNoEmail%2,                    Fumagalli%Roberto%coreGivesNoEmail%2,                    Grasselli%Giacomo%coreGivesNoEmail%2,                    Iotti%Giorgio%coreGivesNoEmail%2,                    Latronico%Nicola%coreGivesNoEmail%2,                    Lorini%Luca%coreGivesNoEmail%2,                    Merler%Stefano%coreGivesNoEmail%2,                    Natalini%Giuseppe%coreGivesNoEmail%2,                    Pesenti%Antonio%coreGivesNoEmail%2,                    Piatti%Alessandra%coreGivesNoEmail%2,                    Ranieri%Marco Vito%coreGivesNoEmail%2,                    Scandroglio%Anna Mara%coreGivesNoEmail%2,                    Storti%Enrico%coreGivesNoEmail%2,                    Zanella%Alberto%coreGivesNoEmail%2,                    Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                       Bijan J.%Ghassemieh%NULL%4,                       Michelle%Nichols%NULL%4,                       Richard%Kim%NULL%4,                       Keith R.%Jerome%NULL%4,                       Arun K.%Nalla%NULL%4,                       Alexander L.%Greninger%NULL%4,                       Sudhakar%Pipavath%NULL%4,                       Mark M.%Wurfel%NULL%4,                       Laura%Evans%NULL%4,                       Patricia A.%Kritek%NULL%4,                       T. Eoin%West%NULL%4,                       Andrew%Luks%NULL%4,                       Anthony%Gerbino%NULL%4,                       Chris R.%Dale%NULL%4,                       Jason D.%Goldman%NULL%4,                       Shane%O’Mahony%NULL%4,                       Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%4,                       Xuan%Dong%NULL%1,                       Jieming%Qu%NULL%4,                       Fengyun%Gong%NULL%1,                       Yang%Han%NULL%1,                       Yang%Qiu%NULL%1,                       Jingli%Wang%NULL%1,                       Ying%Liu%NULL%8,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%6,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%1,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%6,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%6,                       Jie%Xiang%NULL%9,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%6,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%6,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%6,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%6,                       Yi%Zhang%NULL%7,                       Hua%Chen%NULL%6,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                       Wei%Zhao%NULL%1,                       Ji%Li%NULL%1,                       Weiwei%Shu%shuweiwei361@163.com%1,                       Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                     Becker%L.B.%coreGivesNoEmail%0,                     Chelico%J.D.%coreGivesNoEmail%0,                     Cohen%S.L.%coreGivesNoEmail%0,                     Cookingham%J.%coreGivesNoEmail%0,                     Coppa%K.%coreGivesNoEmail%0,                     Crawford%J.M.%coreGivesNoEmail%0,                     Davidson%K.W.%coreGivesNoEmail%0,                     Diefenbach%M.A.%coreGivesNoEmail%0,                     Dominello%A.J.%coreGivesNoEmail%0,                     Duer-Hefele%J.%coreGivesNoEmail%0,                     Falzon%L.%coreGivesNoEmail%0,                     Gitlin%J.%coreGivesNoEmail%0,                     Hajizadeh%N.%coreGivesNoEmail%0,                     Harvin%T.G.%coreGivesNoEmail%0,                     Hirsch%J.S.%coreGivesNoEmail%0,                     Hirschwerk%D.A.%coreGivesNoEmail%0,                     Kim%E.J.%coreGivesNoEmail%0,                     Kozel%Z.M.%coreGivesNoEmail%0,                     Marrast%L.M.%coreGivesNoEmail%0,                     McGinn%T.%coreGivesNoEmail%0,                     Mogavero%J.N.%coreGivesNoEmail%0,                     Narasimhan%M.%coreGivesNoEmail%0,                     Osorio%G.A.%coreGivesNoEmail%0,                     Qiu%M.%coreGivesNoEmail%0,                     Richardson%S.%coreGivesNoEmail%0,                     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                        Ying%Chen%NULL%1,                        Ruzheng%Lin%NULL%1,                        Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                        Yuanyuan%Xing%NULL%1,                        Yu%Xiao%NULL%0,                        Liping%Deng%NULL%1,                        Qiu%Zhao%NULL%1,                        Hongling%Wang%NULL%1,                        Yong%Xiong%NULL%3,                        Zhenshun%Cheng%NULL%4,                        Shicheng%Gao%NULL%1,                        Ke%Liang%NULL%1,                        Mingqi%Luo%NULL%1,                        Tielong%Chen%NULL%1,                        Shihui%Song%NULL%1,                        Zhiyong%Ma%NULL%1,                        Xiaoping%Chen%NULL%1,                        Ruiying%Zheng%NULL%1,                        Qian%Cao%NULL%1,                        Fan%Wang%fanndywang@foxmail.com%0,                        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                        Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                        Yongzhen%Fan%NULL%2,                        Ming%Chen%NULL%2,                        Xiaoyan%Wu%NULL%2,                        Lin%Zhang%NULL%2,                        Tao%He%NULL%2,                        Hairong%Wang%NULL%2,                        Jing%Wan%NULL%2,                        Xinghuan%Wang%NULL%0,                        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%9,                        Xingwang%Li%NULL%4,                        Lili%Ren%NULL%3,                        Jianping%Zhao%NULL%10,                        Yi%Hu%NULL%5,                        Li%Zhang%NULL%5,                        Guohui%Fan%NULL%9,                        Jiuyang%Xu%NULL%9,                        Xiaoying%Gu%NULL%9,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%15,                        Jiaan%Xia%NULL%3,                        Yuan%Wei%NULL%10,                        Wenjuan%Wu%NULL%3,                        Xuelei%Xie%NULL%3,                        Wen%Yin%NULL%3,                        Hui%Li%NULL%0,                        Min%Liu%NULL%4,                        Yan%Xiao%NULL%4,                        Hong%Gao%NULL%5,                        Li%Guo%NULL%4,                        Jungang%Xie%NULL%5,                        Guangfa%Wang%NULL%3,                        Rongmeng%Jiang%NULL%3,                        Zhancheng%Gao%NULL%3,                        Qi%Jin%NULL%4,                        Jianwei%Wang%wangjw28@163.com%3,                        Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                     Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                     Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                     Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                     Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                     Cabrini%Luca%coreGivesNoEmail%2,                     Castelli%Antonio%coreGivesNoEmail%2,                     Cecconi%Maurizio%coreGivesNoEmail%2,                     Cereda%Danilo%coreGivesNoEmail%2,                     Coluccello%Antonio%coreGivesNoEmail%2,                     Foti%Giuseppe%coreGivesNoEmail%2,                     Fumagalli%Roberto%coreGivesNoEmail%2,                     Grasselli%Giacomo%coreGivesNoEmail%2,                     Iotti%Giorgio%coreGivesNoEmail%2,                     Latronico%Nicola%coreGivesNoEmail%2,                     Lorini%Luca%coreGivesNoEmail%2,                     Merler%Stefano%coreGivesNoEmail%2,                     Natalini%Giuseppe%coreGivesNoEmail%2,                     Pesenti%Antonio%coreGivesNoEmail%2,                     Piatti%Alessandra%coreGivesNoEmail%2,                     Ranieri%Marco Vito%coreGivesNoEmail%2,                     Scandroglio%Anna Mara%coreGivesNoEmail%2,                     Storti%Enrico%coreGivesNoEmail%2,                     Zanella%Alberto%coreGivesNoEmail%2,                     Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                        Bijan J.%Ghassemieh%NULL%4,                        Michelle%Nichols%NULL%4,                        Richard%Kim%NULL%4,                        Keith R.%Jerome%NULL%4,                        Arun K.%Nalla%NULL%4,                        Alexander L.%Greninger%NULL%4,                        Sudhakar%Pipavath%NULL%4,                        Mark M.%Wurfel%NULL%4,                        Laura%Evans%NULL%4,                        Patricia A.%Kritek%NULL%4,                        T. Eoin%West%NULL%4,                        Andrew%Luks%NULL%4,                        Anthony%Gerbino%NULL%4,                        Chris R.%Dale%NULL%4,                        Jason D.%Goldman%NULL%4,                        Shane%O’Mahony%NULL%4,                        Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%4,                        Xuan%Dong%NULL%1,                        Jieming%Qu%NULL%4,                        Fengyun%Gong%NULL%1,                        Yang%Han%NULL%1,                        Yang%Qiu%NULL%1,                        Jingli%Wang%NULL%1,                        Ying%Liu%NULL%8,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%6,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%1,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%6,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%6,                        Jie%Xiang%NULL%9,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%6,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%6,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%6,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%6,                        Yi%Zhang%NULL%7,                        Hua%Chen%NULL%6,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                        Wei%Zhao%NULL%1,                        Ji%Li%NULL%1,                        Weiwei%Shu%shuweiwei361@163.com%1,                        Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                      Becker%L.B.%coreGivesNoEmail%0,                      Chelico%J.D.%coreGivesNoEmail%0,                      Cohen%S.L.%coreGivesNoEmail%0,                      Cookingham%J.%coreGivesNoEmail%0,                      Coppa%K.%coreGivesNoEmail%0,                      Crawford%J.M.%coreGivesNoEmail%0,                      Davidson%K.W.%coreGivesNoEmail%0,                      Diefenbach%M.A.%coreGivesNoEmail%0,                      Dominello%A.J.%coreGivesNoEmail%0,                      Duer-Hefele%J.%coreGivesNoEmail%0,                      Falzon%L.%coreGivesNoEmail%0,                      Gitlin%J.%coreGivesNoEmail%0,                      Hajizadeh%N.%coreGivesNoEmail%0,                      Harvin%T.G.%coreGivesNoEmail%0,                      Hirsch%J.S.%coreGivesNoEmail%0,                      Hirschwerk%D.A.%coreGivesNoEmail%0,                      Kim%E.J.%coreGivesNoEmail%0,                      Kozel%Z.M.%coreGivesNoEmail%0,                      Marrast%L.M.%coreGivesNoEmail%0,                      McGinn%T.%coreGivesNoEmail%0,                      Mogavero%J.N.%coreGivesNoEmail%0,                      Narasimhan%M.%coreGivesNoEmail%0,                      Osorio%G.A.%coreGivesNoEmail%0,                      Qiu%M.%coreGivesNoEmail%0,                      Richardson%S.%coreGivesNoEmail%0,                      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                         Ying%Chen%NULL%1,                         Ruzheng%Lin%NULL%1,                         Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                         Yuanyuan%Xing%NULL%1,                         Yu%Xiao%NULL%0,                         Liping%Deng%NULL%1,                         Qiu%Zhao%NULL%1,                         Hongling%Wang%NULL%1,                         Yong%Xiong%NULL%3,                         Zhenshun%Cheng%NULL%4,                         Shicheng%Gao%NULL%1,                         Ke%Liang%NULL%1,                         Mingqi%Luo%NULL%1,                         Tielong%Chen%NULL%1,                         Shihui%Song%NULL%1,                         Zhiyong%Ma%NULL%1,                         Xiaoping%Chen%NULL%1,                         Ruiying%Zheng%NULL%1,                         Qian%Cao%NULL%1,                         Fan%Wang%fanndywang@foxmail.com%0,                         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                         Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                         Yongzhen%Fan%NULL%2,                         Ming%Chen%NULL%2,                         Xiaoyan%Wu%NULL%2,                         Lin%Zhang%NULL%2,                         Tao%He%NULL%2,                         Hairong%Wang%NULL%2,                         Jing%Wan%NULL%2,                         Xinghuan%Wang%NULL%0,                         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%9,                         Xingwang%Li%NULL%4,                         Lili%Ren%NULL%3,                         Jianping%Zhao%NULL%10,                         Yi%Hu%NULL%5,                         Li%Zhang%NULL%5,                         Guohui%Fan%NULL%9,                         Jiuyang%Xu%NULL%9,                         Xiaoying%Gu%NULL%9,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%15,                         Jiaan%Xia%NULL%3,                         Yuan%Wei%NULL%10,                         Wenjuan%Wu%NULL%3,                         Xuelei%Xie%NULL%3,                         Wen%Yin%NULL%3,                         Hui%Li%NULL%0,                         Min%Liu%NULL%4,                         Yan%Xiao%NULL%4,                         Hong%Gao%NULL%5,                         Li%Guo%NULL%4,                         Jungang%Xie%NULL%5,                         Guangfa%Wang%NULL%3,                         Rongmeng%Jiang%NULL%3,                         Zhancheng%Gao%NULL%3,                         Qi%Jin%NULL%4,                         Jianwei%Wang%wangjw28@163.com%3,                         Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                      Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                      Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                      Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                      Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                      Cabrini%Luca%coreGivesNoEmail%2,                      Castelli%Antonio%coreGivesNoEmail%2,                      Cecconi%Maurizio%coreGivesNoEmail%2,                      Cereda%Danilo%coreGivesNoEmail%2,                      Coluccello%Antonio%coreGivesNoEmail%2,                      Foti%Giuseppe%coreGivesNoEmail%2,                      Fumagalli%Roberto%coreGivesNoEmail%2,                      Grasselli%Giacomo%coreGivesNoEmail%2,                      Iotti%Giorgio%coreGivesNoEmail%2,                      Latronico%Nicola%coreGivesNoEmail%2,                      Lorini%Luca%coreGivesNoEmail%2,                      Merler%Stefano%coreGivesNoEmail%2,                      Natalini%Giuseppe%coreGivesNoEmail%2,                      Pesenti%Antonio%coreGivesNoEmail%2,                      Piatti%Alessandra%coreGivesNoEmail%2,                      Ranieri%Marco Vito%coreGivesNoEmail%2,                      Scandroglio%Anna Mara%coreGivesNoEmail%2,                      Storti%Enrico%coreGivesNoEmail%2,                      Zanella%Alberto%coreGivesNoEmail%2,                      Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                         Bijan J.%Ghassemieh%NULL%4,                         Michelle%Nichols%NULL%4,                         Richard%Kim%NULL%4,                         Keith R.%Jerome%NULL%4,                         Arun K.%Nalla%NULL%4,                         Alexander L.%Greninger%NULL%4,                         Sudhakar%Pipavath%NULL%4,                         Mark M.%Wurfel%NULL%4,                         Laura%Evans%NULL%4,                         Patricia A.%Kritek%NULL%4,                         T. Eoin%West%NULL%4,                         Andrew%Luks%NULL%4,                         Anthony%Gerbino%NULL%4,                         Chris R.%Dale%NULL%4,                         Jason D.%Goldman%NULL%4,                         Shane%O’Mahony%NULL%4,                         Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%4,                         Xuan%Dong%NULL%1,                         Jieming%Qu%NULL%4,                         Fengyun%Gong%NULL%1,                         Yang%Han%NULL%1,                         Yang%Qiu%NULL%1,                         Jingli%Wang%NULL%1,                         Ying%Liu%NULL%8,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%6,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%1,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%6,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%6,                         Jie%Xiang%NULL%9,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%6,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%6,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%6,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%6,                         Yi%Zhang%NULL%7,                         Hua%Chen%NULL%6,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                         Wei%Zhao%NULL%1,                         Ji%Li%NULL%1,                         Weiwei%Shu%shuweiwei361@163.com%1,                         Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1612,6 +1819,9 @@
       <c r="I1" t="s">
         <v>78</v>
       </c>
+      <c r="J1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1627,7 +1837,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1640,6 +1850,9 @@
       </c>
       <c r="I2" t="s">
         <v>323</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1869,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1669,6 +1882,9 @@
       </c>
       <c r="I3" t="s">
         <v>325</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1685,7 +1901,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1698,6 +1914,9 @@
       </c>
       <c r="I4" t="s">
         <v>327</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1714,7 +1933,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1727,6 +1946,9 @@
       </c>
       <c r="I5" t="s">
         <v>325</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1743,7 +1965,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1756,6 +1978,9 @@
       </c>
       <c r="I6" t="s">
         <v>327</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1772,7 +1997,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1785,6 +2010,9 @@
       </c>
       <c r="I7" t="s">
         <v>325</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +2029,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1814,6 +2042,9 @@
       </c>
       <c r="I8" t="s">
         <v>323</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1830,7 +2061,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1843,6 +2074,9 @@
       </c>
       <c r="I9" t="s">
         <v>323</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1859,7 +2093,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1872,6 +2106,9 @@
       </c>
       <c r="I10" t="s">
         <v>323</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1888,7 +2125,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1901,6 +2138,9 @@
       </c>
       <c r="I11" t="s">
         <v>327</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1917,7 +2157,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>351</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1926,10 +2166,13 @@
         <v>163</v>
       </c>
       <c r="H12" t="s">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +2189,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1955,10 +2198,13 @@
         <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="14">
@@ -1975,7 +2221,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -1988,6 +2234,9 @@
       </c>
       <c r="I14" t="s">
         <v>325</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2004,7 +2253,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -2017,6 +2266,9 @@
       </c>
       <c r="I15" t="s">
         <v>325</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2033,7 +2285,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
@@ -2046,6 +2298,9 @@
       </c>
       <c r="I16" t="s">
         <v>340</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/23.xlsx
+++ b/Covid_19_Dataset_and_References/References/23.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="451">
   <si>
     <t>Doi</t>
   </si>
@@ -1500,6 +1500,84 @@
   </si>
   <si>
     <t>[Ke%Wang%NULL%0,                         Wei%Zhao%NULL%1,                         Ji%Li%NULL%1,                         Weiwei%Shu%shuweiwei361@163.com%1,                         Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                       Becker%L.B.%coreGivesNoEmail%0,                       Chelico%J.D.%coreGivesNoEmail%0,                       Cohen%S.L.%coreGivesNoEmail%0,                       Cookingham%J.%coreGivesNoEmail%0,                       Coppa%K.%coreGivesNoEmail%0,                       Crawford%J.M.%coreGivesNoEmail%0,                       Davidson%K.W.%coreGivesNoEmail%0,                       Diefenbach%M.A.%coreGivesNoEmail%0,                       Dominello%A.J.%coreGivesNoEmail%0,                       Duer-Hefele%J.%coreGivesNoEmail%0,                       Falzon%L.%coreGivesNoEmail%0,                       Gitlin%J.%coreGivesNoEmail%0,                       Hajizadeh%N.%coreGivesNoEmail%0,                       Harvin%T.G.%coreGivesNoEmail%0,                       Hirsch%J.S.%coreGivesNoEmail%0,                       Hirschwerk%D.A.%coreGivesNoEmail%0,                       Kim%E.J.%coreGivesNoEmail%0,                       Kozel%Z.M.%coreGivesNoEmail%0,                       Marrast%L.M.%coreGivesNoEmail%0,                       McGinn%T.%coreGivesNoEmail%0,                       Mogavero%J.N.%coreGivesNoEmail%0,                       Narasimhan%M.%coreGivesNoEmail%0,                       Osorio%G.A.%coreGivesNoEmail%0,                       Qiu%M.%coreGivesNoEmail%0,                       Richardson%S.%coreGivesNoEmail%0,                       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                          Ying%Chen%NULL%1,                          Ruzheng%Lin%NULL%1,                          Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                          Yuanyuan%Xing%NULL%1,                          Yu%Xiao%NULL%0,                          Liping%Deng%NULL%1,                          Qiu%Zhao%NULL%1,                          Hongling%Wang%NULL%1,                          Yong%Xiong%NULL%3,                          Zhenshun%Cheng%NULL%4,                          Shicheng%Gao%NULL%1,                          Ke%Liang%NULL%1,                          Mingqi%Luo%NULL%1,                          Tielong%Chen%NULL%1,                          Shihui%Song%NULL%1,                          Zhiyong%Ma%NULL%1,                          Xiaoping%Chen%NULL%1,                          Ruiying%Zheng%NULL%1,                          Qian%Cao%NULL%1,                          Fan%Wang%fanndywang@foxmail.com%0,                          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                          Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                          Yongzhen%Fan%NULL%2,                          Ming%Chen%NULL%2,                          Xiaoyan%Wu%NULL%2,                          Lin%Zhang%NULL%2,                          Tao%He%NULL%2,                          Hairong%Wang%NULL%2,                          Jing%Wan%NULL%2,                          Xinghuan%Wang%NULL%0,                          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%9,                          Xingwang%Li%NULL%4,                          Lili%Ren%NULL%3,                          Jianping%Zhao%NULL%10,                          Yi%Hu%NULL%5,                          Li%Zhang%NULL%5,                          Guohui%Fan%NULL%9,                          Jiuyang%Xu%NULL%9,                          Xiaoying%Gu%NULL%9,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%15,                          Jiaan%Xia%NULL%3,                          Yuan%Wei%NULL%10,                          Wenjuan%Wu%NULL%3,                          Xuelei%Xie%NULL%3,                          Wen%Yin%NULL%3,                          Hui%Li%NULL%0,                          Min%Liu%NULL%4,                          Yan%Xiao%NULL%4,                          Hong%Gao%NULL%5,                          Li%Guo%NULL%4,                          Jungang%Xie%NULL%5,                          Guangfa%Wang%NULL%3,                          Rongmeng%Jiang%NULL%3,                          Zhancheng%Gao%NULL%3,                          Qi%Jin%NULL%4,                          Jianwei%Wang%wangjw28@163.com%3,                          Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                       Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                       Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                       Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                       Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                       Cabrini%Luca%coreGivesNoEmail%2,                       Castelli%Antonio%coreGivesNoEmail%2,                       Cecconi%Maurizio%coreGivesNoEmail%2,                       Cereda%Danilo%coreGivesNoEmail%2,                       Coluccello%Antonio%coreGivesNoEmail%2,                       Foti%Giuseppe%coreGivesNoEmail%2,                       Fumagalli%Roberto%coreGivesNoEmail%2,                       Grasselli%Giacomo%coreGivesNoEmail%2,                       Iotti%Giorgio%coreGivesNoEmail%2,                       Latronico%Nicola%coreGivesNoEmail%2,                       Lorini%Luca%coreGivesNoEmail%2,                       Merler%Stefano%coreGivesNoEmail%2,                       Natalini%Giuseppe%coreGivesNoEmail%2,                       Pesenti%Antonio%coreGivesNoEmail%2,                       Piatti%Alessandra%coreGivesNoEmail%2,                       Ranieri%Marco Vito%coreGivesNoEmail%2,                       Scandroglio%Anna Mara%coreGivesNoEmail%2,                       Storti%Enrico%coreGivesNoEmail%2,                       Zanella%Alberto%coreGivesNoEmail%2,                       Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                          Bijan J.%Ghassemieh%NULL%4,                          Michelle%Nichols%NULL%4,                          Richard%Kim%NULL%4,                          Keith R.%Jerome%NULL%4,                          Arun K.%Nalla%NULL%4,                          Alexander L.%Greninger%NULL%4,                          Sudhakar%Pipavath%NULL%4,                          Mark M.%Wurfel%NULL%4,                          Laura%Evans%NULL%4,                          Patricia A.%Kritek%NULL%4,                          T. Eoin%West%NULL%4,                          Andrew%Luks%NULL%4,                          Anthony%Gerbino%NULL%4,                          Chris R.%Dale%NULL%4,                          Jason D.%Goldman%NULL%4,                          Shane%O’Mahony%NULL%4,                          Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%4,                          Xuan%Dong%NULL%1,                          Jieming%Qu%NULL%4,                          Fengyun%Gong%NULL%1,                          Yang%Han%NULL%1,                          Yang%Qiu%NULL%1,                          Jingli%Wang%NULL%1,                          Ying%Liu%NULL%8,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%6,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%1,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%6,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%6,                          Jie%Xiang%NULL%9,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%6,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%6,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%6,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%6,                          Yi%Zhang%NULL%7,                          Hua%Chen%NULL%6,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                          Wei%Zhao%NULL%1,                          Ji%Li%NULL%1,                          Weiwei%Shu%shuweiwei361@163.com%1,                          Jun%Duan%duanjun412589@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                        Becker%L.B.%coreGivesNoEmail%0,                        Chelico%J.D.%coreGivesNoEmail%0,                        Cohen%S.L.%coreGivesNoEmail%0,                        Cookingham%J.%coreGivesNoEmail%0,                        Coppa%K.%coreGivesNoEmail%0,                        Crawford%J.M.%coreGivesNoEmail%0,                        Davidson%K.W.%coreGivesNoEmail%0,                        Diefenbach%M.A.%coreGivesNoEmail%0,                        Dominello%A.J.%coreGivesNoEmail%0,                        Duer-Hefele%J.%coreGivesNoEmail%0,                        Falzon%L.%coreGivesNoEmail%0,                        Gitlin%J.%coreGivesNoEmail%0,                        Hajizadeh%N.%coreGivesNoEmail%0,                        Harvin%T.G.%coreGivesNoEmail%0,                        Hirsch%J.S.%coreGivesNoEmail%0,                        Hirschwerk%D.A.%coreGivesNoEmail%0,                        Kim%E.J.%coreGivesNoEmail%0,                        Kozel%Z.M.%coreGivesNoEmail%0,                        Marrast%L.M.%coreGivesNoEmail%0,                        McGinn%T.%coreGivesNoEmail%0,                        Mogavero%J.N.%coreGivesNoEmail%0,                        Narasimhan%M.%coreGivesNoEmail%0,                        Osorio%G.A.%coreGivesNoEmail%0,                        Qiu%M.%coreGivesNoEmail%0,                        Richardson%S.%coreGivesNoEmail%0,                        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Kai%Liu%hmliukai@126.com%0,                           Ying%Chen%NULL%1,                           Ruzheng%Lin%NULL%1,                           Kunyuan%Han%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                           Yuanyuan%Xing%NULL%1,                           Yu%Xiao%NULL%0,                           Liping%Deng%NULL%1,                           Qiu%Zhao%NULL%1,                           Hongling%Wang%NULL%1,                           Yong%Xiong%NULL%3,                           Zhenshun%Cheng%NULL%4,                           Shicheng%Gao%NULL%1,                           Ke%Liang%NULL%1,                           Mingqi%Luo%NULL%1,                           Tielong%Chen%NULL%1,                           Shihui%Song%NULL%1,                           Zhiyong%Ma%NULL%1,                           Xiaoping%Chen%NULL%1,                           Ruiying%Zheng%NULL%1,                           Qian%Cao%NULL%1,                           Fan%Wang%fanndywang@foxmail.com%0,                           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0,                           Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                           Yongzhen%Fan%NULL%2,                           Ming%Chen%NULL%2,                           Xiaoyan%Wu%NULL%2,                           Lin%Zhang%NULL%2,                           Tao%He%NULL%2,                           Hairong%Wang%NULL%2,                           Jing%Wan%NULL%2,                           Xinghuan%Wang%NULL%0,                           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%9,                           Xingwang%Li%NULL%4,                           Lili%Ren%NULL%3,                           Jianping%Zhao%NULL%10,                           Yi%Hu%NULL%5,                           Li%Zhang%NULL%5,                           Guohui%Fan%NULL%9,                           Jiuyang%Xu%NULL%9,                           Xiaoying%Gu%NULL%9,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%15,                           Jiaan%Xia%NULL%3,                           Yuan%Wei%NULL%10,                           Wenjuan%Wu%NULL%3,                           Xuelei%Xie%NULL%3,                           Wen%Yin%NULL%3,                           Hui%Li%NULL%0,                           Min%Liu%NULL%4,                           Yan%Xiao%NULL%4,                           Hong%Gao%NULL%5,                           Li%Guo%NULL%4,                           Jungang%Xie%NULL%5,                           Guangfa%Wang%NULL%3,                           Rongmeng%Jiang%NULL%3,                           Zhancheng%Gao%NULL%3,                           Qi%Jin%NULL%4,                           Jianwei%Wang%wangjw28@163.com%3,                           Bin%Cao%caobin_ben@163.com%10]</t>
+  </si>
+  <si>
+    <t>[Aguilar%Medina Jos\u00e9 M.%coreGivesNoEmail%0,                        Claro%Vald\u00e9s Ram\u00f3n%coreGivesNoEmail%0,                        Obreg\u00f3n%Santos Angel G.%coreGivesNoEmail%0,                        Proh\u00edas%Mart\u00ednez Juan%coreGivesNoEmail%0,                        Rodr\u00edguez%Blanco Suilbert%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,                        Cabrini%Luca%coreGivesNoEmail%2,                        Castelli%Antonio%coreGivesNoEmail%2,                        Cecconi%Maurizio%coreGivesNoEmail%2,                        Cereda%Danilo%coreGivesNoEmail%2,                        Coluccello%Antonio%coreGivesNoEmail%2,                        Foti%Giuseppe%coreGivesNoEmail%2,                        Fumagalli%Roberto%coreGivesNoEmail%2,                        Grasselli%Giacomo%coreGivesNoEmail%2,                        Iotti%Giorgio%coreGivesNoEmail%2,                        Latronico%Nicola%coreGivesNoEmail%2,                        Lorini%Luca%coreGivesNoEmail%2,                        Merler%Stefano%coreGivesNoEmail%2,                        Natalini%Giuseppe%coreGivesNoEmail%2,                        Pesenti%Antonio%coreGivesNoEmail%2,                        Piatti%Alessandra%coreGivesNoEmail%2,                        Ranieri%Marco Vito%coreGivesNoEmail%2,                        Scandroglio%Anna Mara%coreGivesNoEmail%2,                        Storti%Enrico%coreGivesNoEmail%2,                        Zanella%Alberto%coreGivesNoEmail%2,                        Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                           Bijan J.%Ghassemieh%NULL%4,                           Michelle%Nichols%NULL%4,                           Richard%Kim%NULL%4,                           Keith R.%Jerome%NULL%4,                           Arun K.%Nalla%NULL%4,                           Alexander L.%Greninger%NULL%4,                           Sudhakar%Pipavath%NULL%4,                           Mark M.%Wurfel%NULL%4,                           Laura%Evans%NULL%4,                           Patricia A.%Kritek%NULL%4,                           T. Eoin%West%NULL%4,                           Andrew%Luks%NULL%4,                           Anthony%Gerbino%NULL%4,                           Chris R.%Dale%NULL%4,                           Jason D.%Goldman%NULL%4,                           Shane%O’Mahony%NULL%4,                           Carmen%Mikacenic%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%4,                           Xuan%Dong%NULL%1,                           Jieming%Qu%NULL%4,                           Fengyun%Gong%NULL%1,                           Yang%Han%NULL%1,                           Yang%Qiu%NULL%1,                           Jingli%Wang%NULL%1,                           Ying%Liu%NULL%8,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%6,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%1,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%6,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%6,                           Jie%Xiang%NULL%9,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%6,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%6,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%6,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%6,                           Yi%Zhang%NULL%7,                           Hua%Chen%NULL%6,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0,                           Wei%Zhao%NULL%1,                           Ji%Li%NULL%1,                           Weiwei%Shu%shuweiwei361@163.com%1,                           Jun%Duan%duanjun412589@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1915,7 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1869,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1901,7 +1979,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1933,7 +2011,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1965,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1997,7 +2075,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -2029,7 +2107,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2061,7 +2139,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2093,7 +2171,7 @@
         <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2125,7 +2203,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -2157,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2189,7 +2267,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2221,7 +2299,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
         <v>59</v>
@@ -2253,7 +2331,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -2285,7 +2363,7 @@
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="F16" t="s">
         <v>67</v>
